--- a/ennusteet_excel/sensitiivisyys/korkea_tfr_ennusteet.xlsx
+++ b/ennusteet_excel/sensitiivisyys/korkea_tfr_ennusteet.xlsx
@@ -553,621 +553,639 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>1020319</v>
+        <v>1004037</v>
       </c>
       <c r="D3" t="n">
-        <v>1020358</v>
+        <v>1004037</v>
       </c>
       <c r="E3" t="n">
-        <v>1020329</v>
+        <v>1004037</v>
       </c>
       <c r="F3" t="n">
-        <v>1020348</v>
+        <v>1004037</v>
       </c>
       <c r="G3" t="n">
-        <v>1020339</v>
+        <v>1004037</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>1023806.9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1028402.1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1024904.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1027200.25</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>1026120.5</v>
-      </c>
-      <c r="H4"/>
+        <v>1004037</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>1025566</v>
+        <v>1007415</v>
       </c>
       <c r="D5" t="n">
-        <v>1035111.7</v>
+        <v>1012457.2</v>
       </c>
       <c r="E5" t="n">
-        <v>1027943.25</v>
+        <v>1008652</v>
       </c>
       <c r="F5" t="n">
-        <v>1032862.25</v>
+        <v>1011229.75</v>
       </c>
       <c r="G5" t="n">
-        <v>1030313</v>
+        <v>1009902.5</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>1026200.8</v>
+        <v>1009056.7</v>
       </c>
       <c r="D6" t="n">
-        <v>1041302</v>
+        <v>1019260.2</v>
       </c>
       <c r="E6" t="n">
-        <v>1029878.75</v>
+        <v>1011752</v>
       </c>
       <c r="F6" t="n">
-        <v>1037814</v>
+        <v>1016886</v>
       </c>
       <c r="G6" t="n">
-        <v>1033659</v>
+        <v>1014509.5</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>1026961.5</v>
+        <v>1009493.8</v>
       </c>
       <c r="D7" t="n">
-        <v>1049313.3</v>
+        <v>1025909</v>
       </c>
       <c r="E7" t="n">
-        <v>1032555.25</v>
+        <v>1013402.25</v>
       </c>
       <c r="F7" t="n">
-        <v>1043573.75</v>
+        <v>1021772.75</v>
       </c>
       <c r="G7" t="n">
-        <v>1038352.5</v>
+        <v>1017628</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>1028065.9</v>
+        <v>1010691.1</v>
       </c>
       <c r="D8" t="n">
-        <v>1058102</v>
+        <v>1033584.6</v>
       </c>
       <c r="E8" t="n">
-        <v>1035404</v>
+        <v>1015821.5</v>
       </c>
       <c r="F8" t="n">
-        <v>1049852.75</v>
+        <v>1027585</v>
       </c>
       <c r="G8" t="n">
-        <v>1043003.5</v>
+        <v>1021253</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="n">
-        <v>1030596.6</v>
+        <v>1011550</v>
       </c>
       <c r="D9" t="n">
-        <v>1068708.5</v>
+        <v>1041617.8</v>
       </c>
       <c r="E9" t="n">
-        <v>1039516.25</v>
+        <v>1018199</v>
       </c>
       <c r="F9" t="n">
-        <v>1058137.25</v>
+        <v>1033608.75</v>
       </c>
       <c r="G9" t="n">
-        <v>1049324</v>
+        <v>1025072</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>1034509.2</v>
+        <v>1013597.9</v>
       </c>
       <c r="D10" t="n">
-        <v>1081569.5</v>
+        <v>1052120.7</v>
       </c>
       <c r="E10" t="n">
-        <v>1044773</v>
+        <v>1021219</v>
       </c>
       <c r="F10" t="n">
-        <v>1068066.75</v>
+        <v>1041116.5</v>
       </c>
       <c r="G10" t="n">
-        <v>1056850.5</v>
+        <v>1030102</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>1039955.7</v>
+        <v>1015711</v>
       </c>
       <c r="D11" t="n">
-        <v>1097160.6</v>
+        <v>1063645</v>
       </c>
       <c r="E11" t="n">
-        <v>1052517.5</v>
+        <v>1025854</v>
       </c>
       <c r="F11" t="n">
-        <v>1080960</v>
+        <v>1050381.5</v>
       </c>
       <c r="G11" t="n">
-        <v>1066059</v>
+        <v>1036483</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>1048452.2</v>
+        <v>1020885.5</v>
       </c>
       <c r="D12" t="n">
-        <v>1115320.2</v>
+        <v>1078206.9</v>
       </c>
       <c r="E12" t="n">
-        <v>1061609.25</v>
+        <v>1033392</v>
       </c>
       <c r="F12" t="n">
-        <v>1096177</v>
+        <v>1062608.75</v>
       </c>
       <c r="G12" t="n">
-        <v>1078893.5</v>
+        <v>1045086.5</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>1058388.4</v>
+        <v>1027583.6</v>
       </c>
       <c r="D13" t="n">
-        <v>1138287.1</v>
+        <v>1096696.7</v>
       </c>
       <c r="E13" t="n">
-        <v>1074607.75</v>
+        <v>1042773</v>
       </c>
       <c r="F13" t="n">
-        <v>1115372.5</v>
+        <v>1076897</v>
       </c>
       <c r="G13" t="n">
-        <v>1094680.5</v>
+        <v>1056143.5</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="n">
-        <v>1071527</v>
+        <v>1038291.2</v>
       </c>
       <c r="D14" t="n">
-        <v>1163991</v>
+        <v>1118280.8</v>
       </c>
       <c r="E14" t="n">
-        <v>1090753.5</v>
+        <v>1054536</v>
       </c>
       <c r="F14" t="n">
-        <v>1138092.25</v>
+        <v>1094238.5</v>
       </c>
       <c r="G14" t="n">
-        <v>1113622.5</v>
+        <v>1071145.5</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>1087019</v>
+        <v>1052004.1</v>
       </c>
       <c r="D15" t="n">
-        <v>1194239.8</v>
+        <v>1144083.6</v>
       </c>
       <c r="E15" t="n">
-        <v>1109928.75</v>
+        <v>1069822</v>
       </c>
       <c r="F15" t="n">
-        <v>1163232</v>
+        <v>1116560.75</v>
       </c>
       <c r="G15" t="n">
-        <v>1135376.5</v>
+        <v>1089254.5</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="n">
-        <v>1103235</v>
+        <v>1067722</v>
       </c>
       <c r="D16" t="n">
-        <v>1225942.3</v>
+        <v>1173605.7</v>
       </c>
       <c r="E16" t="n">
-        <v>1128032.75</v>
+        <v>1088515</v>
       </c>
       <c r="F16" t="n">
-        <v>1189183</v>
+        <v>1141659.5</v>
       </c>
       <c r="G16" t="n">
-        <v>1156480.5</v>
+        <v>1110624</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17" t="n">
-        <v>1115810.5</v>
+        <v>1082655.2</v>
       </c>
       <c r="D17" t="n">
-        <v>1254892.2</v>
+        <v>1204457.4</v>
       </c>
       <c r="E17" t="n">
-        <v>1143958.5</v>
+        <v>1104667.5</v>
       </c>
       <c r="F17" t="n">
-        <v>1212746.75</v>
+        <v>1165559.25</v>
       </c>
       <c r="G17" t="n">
-        <v>1175454</v>
+        <v>1131149.5</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18" t="n">
-        <v>1134707</v>
+        <v>1093884.3</v>
       </c>
       <c r="D18" t="n">
-        <v>1288330</v>
+        <v>1232756.5</v>
       </c>
       <c r="E18" t="n">
-        <v>1164780.75</v>
+        <v>1120537.75</v>
       </c>
       <c r="F18" t="n">
-        <v>1241177.25</v>
+        <v>1187979.25</v>
       </c>
       <c r="G18" t="n">
-        <v>1199684.5</v>
+        <v>1150182</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="n">
-        <v>1152694.5</v>
+        <v>1111077.5</v>
       </c>
       <c r="D19" t="n">
-        <v>1325432.6</v>
+        <v>1266246.2</v>
       </c>
       <c r="E19" t="n">
-        <v>1187147</v>
+        <v>1141990.75</v>
       </c>
       <c r="F19" t="n">
-        <v>1271803.75</v>
+        <v>1216586</v>
       </c>
       <c r="G19" t="n">
-        <v>1225515</v>
+        <v>1173350.5</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20" t="n">
-        <v>1169270.5</v>
+        <v>1129201.7</v>
       </c>
       <c r="D20" t="n">
-        <v>1360832.7</v>
+        <v>1302415.4</v>
       </c>
       <c r="E20" t="n">
-        <v>1209482.25</v>
+        <v>1164330.75</v>
       </c>
       <c r="F20" t="n">
-        <v>1303114.5</v>
+        <v>1245782.75</v>
       </c>
       <c r="G20" t="n">
-        <v>1252163</v>
+        <v>1198522.5</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>1166432.6</v>
+        <v>1147032.4</v>
       </c>
       <c r="D21" t="n">
-        <v>1375524.4</v>
+        <v>1339666.2</v>
       </c>
       <c r="E21" t="n">
-        <v>1209840.75</v>
+        <v>1186143.75</v>
       </c>
       <c r="F21" t="n">
-        <v>1312387</v>
+        <v>1275234</v>
       </c>
       <c r="G21" t="n">
-        <v>1257150</v>
+        <v>1223732</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
       </c>
       <c r="C22" t="n">
-        <v>1165675.4</v>
+        <v>1163647.9</v>
       </c>
       <c r="D22" t="n">
-        <v>1389669.8</v>
+        <v>1372884.3</v>
       </c>
       <c r="E22" t="n">
-        <v>1209723.75</v>
+        <v>1206883</v>
       </c>
       <c r="F22" t="n">
-        <v>1320639</v>
+        <v>1304433</v>
       </c>
       <c r="G22" t="n">
-        <v>1260861.5</v>
+        <v>1248329</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>1162079</v>
+        <v>1159389.2</v>
       </c>
       <c r="D23" t="n">
-        <v>1402558.9</v>
+        <v>1386412.2</v>
       </c>
       <c r="E23" t="n">
-        <v>1208704</v>
+        <v>1206184.5</v>
       </c>
       <c r="F23" t="n">
-        <v>1328031</v>
+        <v>1312119.5</v>
       </c>
       <c r="G23" t="n">
-        <v>1264898.5</v>
+        <v>1252344</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="n">
-        <v>1156670.3</v>
+        <v>1154451.1</v>
       </c>
       <c r="D24" t="n">
-        <v>1415920.7</v>
+        <v>1398174.5</v>
       </c>
       <c r="E24" t="n">
-        <v>1208357.5</v>
+        <v>1203236.25</v>
       </c>
       <c r="F24" t="n">
-        <v>1334638.75</v>
+        <v>1319167</v>
       </c>
       <c r="G24" t="n">
-        <v>1268038</v>
+        <v>1255190</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
       </c>
       <c r="C25" t="n">
-        <v>1151410.9</v>
+        <v>1149932.8</v>
       </c>
       <c r="D25" t="n">
-        <v>1427853.3</v>
+        <v>1411706.9</v>
       </c>
       <c r="E25" t="n">
-        <v>1207635</v>
+        <v>1202929.75</v>
       </c>
       <c r="F25" t="n">
-        <v>1342519</v>
+        <v>1326377.5</v>
       </c>
       <c r="G25" t="n">
-        <v>1270089</v>
+        <v>1257238.5</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
       </c>
       <c r="C26" t="n">
-        <v>1145124.6</v>
+        <v>1144689.7</v>
       </c>
       <c r="D26" t="n">
-        <v>1438802</v>
+        <v>1422930.7</v>
       </c>
       <c r="E26" t="n">
-        <v>1206184.5</v>
+        <v>1202532.5</v>
       </c>
       <c r="F26" t="n">
-        <v>1349047.25</v>
+        <v>1333756</v>
       </c>
       <c r="G26" t="n">
-        <v>1274211.5</v>
+        <v>1259533.5</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
       </c>
       <c r="C27" t="n">
-        <v>1140774.7</v>
+        <v>1137588.7</v>
       </c>
       <c r="D27" t="n">
-        <v>1448242.1</v>
+        <v>1432946.9</v>
       </c>
       <c r="E27" t="n">
-        <v>1205020.25</v>
+        <v>1200930.75</v>
       </c>
       <c r="F27" t="n">
-        <v>1352903.25</v>
+        <v>1337497.5</v>
       </c>
       <c r="G27" t="n">
-        <v>1275776</v>
+        <v>1260638.5</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
       </c>
       <c r="C28" t="n">
-        <v>1134462.1</v>
+        <v>1132375.6</v>
       </c>
       <c r="D28" t="n">
-        <v>1457675.6</v>
+        <v>1437679.2</v>
       </c>
       <c r="E28" t="n">
-        <v>1201724</v>
+        <v>1198283.25</v>
       </c>
       <c r="F28" t="n">
-        <v>1356686.5</v>
+        <v>1340771.75</v>
       </c>
       <c r="G28" t="n">
-        <v>1276654</v>
+        <v>1261788</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1126994.2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1445068.9</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1195612.75</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1345153.25</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1260869.5</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1222,621 +1240,639 @@
         <v>53</v>
       </c>
       <c r="C3" t="n">
-        <v>1.874177733753</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="D3" t="n">
-        <v>1.874177733753</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="E3" t="n">
-        <v>1.874177733753</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="F3" t="n">
-        <v>1.874177733753</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="G3" t="n">
-        <v>1.874177733753</v>
+        <v>1.2780796334476</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.872328927713</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.872328927713</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.872328927713</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.872328927713</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>1.872328927713</v>
-      </c>
-      <c r="H4"/>
+        <v>1.2780796334476</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
       </c>
       <c r="C5" t="n">
-        <v>1.86571024486429</v>
+        <v>1.872328927713</v>
       </c>
       <c r="D5" t="n">
-        <v>1.86571024486429</v>
+        <v>1.872328927713</v>
       </c>
       <c r="E5" t="n">
-        <v>1.86571024486429</v>
+        <v>1.872328927713</v>
       </c>
       <c r="F5" t="n">
-        <v>1.86571024486429</v>
+        <v>1.872328927713</v>
       </c>
       <c r="G5" t="n">
-        <v>1.86571024486429</v>
+        <v>1.872328927713</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
       </c>
       <c r="C6" t="n">
-        <v>1.85947012487012</v>
+        <v>1.86571024486429</v>
       </c>
       <c r="D6" t="n">
-        <v>1.85947012487012</v>
+        <v>1.86571024486429</v>
       </c>
       <c r="E6" t="n">
-        <v>1.85947012487012</v>
+        <v>1.86571024486429</v>
       </c>
       <c r="F6" t="n">
-        <v>1.85947012487012</v>
+        <v>1.86571024486429</v>
       </c>
       <c r="G6" t="n">
-        <v>1.85947012487012</v>
+        <v>1.86571024486429</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
       </c>
       <c r="C7" t="n">
-        <v>1.85923883688842</v>
+        <v>1.85947012487012</v>
       </c>
       <c r="D7" t="n">
-        <v>1.85923883688842</v>
+        <v>1.85947012487012</v>
       </c>
       <c r="E7" t="n">
-        <v>1.85923883688842</v>
+        <v>1.85947012487012</v>
       </c>
       <c r="F7" t="n">
-        <v>1.85923883688842</v>
+        <v>1.85947012487012</v>
       </c>
       <c r="G7" t="n">
-        <v>1.85923883688842</v>
+        <v>1.85947012487012</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
       </c>
       <c r="C8" t="n">
-        <v>1.85629202582791</v>
+        <v>1.85923883688842</v>
       </c>
       <c r="D8" t="n">
-        <v>1.85629202582791</v>
+        <v>1.85923883688842</v>
       </c>
       <c r="E8" t="n">
-        <v>1.85629202582791</v>
+        <v>1.85923883688842</v>
       </c>
       <c r="F8" t="n">
-        <v>1.85629202582791</v>
+        <v>1.85923883688842</v>
       </c>
       <c r="G8" t="n">
-        <v>1.85629202582791</v>
+        <v>1.85923883688842</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
       </c>
       <c r="C9" t="n">
-        <v>1.85138704747937</v>
+        <v>1.85629202582791</v>
       </c>
       <c r="D9" t="n">
-        <v>1.85138704747937</v>
+        <v>1.85629202582791</v>
       </c>
       <c r="E9" t="n">
-        <v>1.85138704747937</v>
+        <v>1.85629202582791</v>
       </c>
       <c r="F9" t="n">
-        <v>1.85138704747937</v>
+        <v>1.85629202582791</v>
       </c>
       <c r="G9" t="n">
-        <v>1.85138704747937</v>
+        <v>1.85629202582791</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
       </c>
       <c r="C10" t="n">
-        <v>1.85062421586673</v>
+        <v>1.85138704747937</v>
       </c>
       <c r="D10" t="n">
-        <v>1.85062421586673</v>
+        <v>1.85138704747937</v>
       </c>
       <c r="E10" t="n">
-        <v>1.85062421586673</v>
+        <v>1.85138704747937</v>
       </c>
       <c r="F10" t="n">
-        <v>1.85062421586673</v>
+        <v>1.85138704747937</v>
       </c>
       <c r="G10" t="n">
-        <v>1.85062421586673</v>
+        <v>1.85138704747937</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
       </c>
       <c r="C11" t="n">
-        <v>1.84577262376977</v>
+        <v>1.85062421586673</v>
       </c>
       <c r="D11" t="n">
-        <v>1.84577262376977</v>
+        <v>1.85062421586673</v>
       </c>
       <c r="E11" t="n">
-        <v>1.84577262376977</v>
+        <v>1.85062421586673</v>
       </c>
       <c r="F11" t="n">
-        <v>1.84577262376977</v>
+        <v>1.85062421586673</v>
       </c>
       <c r="G11" t="n">
-        <v>1.84577262376977</v>
+        <v>1.85062421586673</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
       </c>
       <c r="C12" t="n">
-        <v>1.84229986690911</v>
+        <v>1.84577262376977</v>
       </c>
       <c r="D12" t="n">
-        <v>1.84229986690911</v>
+        <v>1.84577262376977</v>
       </c>
       <c r="E12" t="n">
-        <v>1.84229986690911</v>
+        <v>1.84577262376977</v>
       </c>
       <c r="F12" t="n">
-        <v>1.84229986690911</v>
+        <v>1.84577262376977</v>
       </c>
       <c r="G12" t="n">
-        <v>1.84229986690911</v>
+        <v>1.84577262376977</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
       </c>
       <c r="C13" t="n">
-        <v>1.84145720979067</v>
+        <v>1.84229986690911</v>
       </c>
       <c r="D13" t="n">
-        <v>1.84145720979067</v>
+        <v>1.84229986690911</v>
       </c>
       <c r="E13" t="n">
-        <v>1.84145720979067</v>
+        <v>1.84229986690911</v>
       </c>
       <c r="F13" t="n">
-        <v>1.84145720979067</v>
+        <v>1.84229986690911</v>
       </c>
       <c r="G13" t="n">
-        <v>1.84145720979067</v>
+        <v>1.84229986690911</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
       </c>
       <c r="C14" t="n">
-        <v>1.84166715503448</v>
+        <v>1.84145720979067</v>
       </c>
       <c r="D14" t="n">
-        <v>1.84166715503448</v>
+        <v>1.84145720979067</v>
       </c>
       <c r="E14" t="n">
-        <v>1.84166715503448</v>
+        <v>1.84145720979067</v>
       </c>
       <c r="F14" t="n">
-        <v>1.84166715503448</v>
+        <v>1.84145720979067</v>
       </c>
       <c r="G14" t="n">
-        <v>1.84166715503448</v>
+        <v>1.84145720979067</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
       </c>
       <c r="C15" t="n">
-        <v>1.84218488460658</v>
+        <v>1.84166715503448</v>
       </c>
       <c r="D15" t="n">
-        <v>1.84218488460658</v>
+        <v>1.84166715503448</v>
       </c>
       <c r="E15" t="n">
-        <v>1.84218488460658</v>
+        <v>1.84166715503448</v>
       </c>
       <c r="F15" t="n">
-        <v>1.84218488460658</v>
+        <v>1.84166715503448</v>
       </c>
       <c r="G15" t="n">
-        <v>1.84218488460658</v>
+        <v>1.84166715503448</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
       </c>
       <c r="C16" t="n">
-        <v>1.84166739007303</v>
+        <v>1.84218488460658</v>
       </c>
       <c r="D16" t="n">
-        <v>1.84166739007303</v>
+        <v>1.84218488460658</v>
       </c>
       <c r="E16" t="n">
-        <v>1.84166739007303</v>
+        <v>1.84218488460658</v>
       </c>
       <c r="F16" t="n">
-        <v>1.84166739007303</v>
+        <v>1.84218488460658</v>
       </c>
       <c r="G16" t="n">
-        <v>1.84166739007303</v>
+        <v>1.84218488460658</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
       </c>
       <c r="C17" t="n">
-        <v>1.84223125002082</v>
+        <v>1.84166739007303</v>
       </c>
       <c r="D17" t="n">
-        <v>1.84223125002082</v>
+        <v>1.84166739007303</v>
       </c>
       <c r="E17" t="n">
-        <v>1.84223125002082</v>
+        <v>1.84166739007303</v>
       </c>
       <c r="F17" t="n">
-        <v>1.84223125002082</v>
+        <v>1.84166739007303</v>
       </c>
       <c r="G17" t="n">
-        <v>1.84223125002082</v>
+        <v>1.84166739007303</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>53</v>
       </c>
       <c r="C18" t="n">
-        <v>1.84092329834912</v>
+        <v>1.84223125002082</v>
       </c>
       <c r="D18" t="n">
-        <v>1.84092329834912</v>
+        <v>1.84223125002082</v>
       </c>
       <c r="E18" t="n">
-        <v>1.84092329834912</v>
+        <v>1.84223125002082</v>
       </c>
       <c r="F18" t="n">
-        <v>1.84092329834912</v>
+        <v>1.84223125002082</v>
       </c>
       <c r="G18" t="n">
-        <v>1.84092329834912</v>
+        <v>1.84223125002082</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
       </c>
       <c r="C19" t="n">
-        <v>1.83617219806087</v>
+        <v>1.84092329834912</v>
       </c>
       <c r="D19" t="n">
-        <v>1.83617219806087</v>
+        <v>1.84092329834912</v>
       </c>
       <c r="E19" t="n">
-        <v>1.83617219806087</v>
+        <v>1.84092329834912</v>
       </c>
       <c r="F19" t="n">
-        <v>1.83617219806087</v>
+        <v>1.84092329834912</v>
       </c>
       <c r="G19" t="n">
-        <v>1.83617219806087</v>
+        <v>1.84092329834912</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>53</v>
       </c>
       <c r="C20" t="n">
-        <v>1.83778802395914</v>
+        <v>1.83617219806087</v>
       </c>
       <c r="D20" t="n">
-        <v>1.83778802395914</v>
+        <v>1.83617219806087</v>
       </c>
       <c r="E20" t="n">
-        <v>1.83778802395914</v>
+        <v>1.83617219806087</v>
       </c>
       <c r="F20" t="n">
-        <v>1.83778802395914</v>
+        <v>1.83617219806087</v>
       </c>
       <c r="G20" t="n">
-        <v>1.83778802395914</v>
+        <v>1.83617219806087</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
       </c>
       <c r="C21" t="n">
-        <v>1.83545756180829</v>
+        <v>1.83778802395914</v>
       </c>
       <c r="D21" t="n">
-        <v>1.83545756180829</v>
+        <v>1.83778802395914</v>
       </c>
       <c r="E21" t="n">
-        <v>1.83545756180829</v>
+        <v>1.83778802395914</v>
       </c>
       <c r="F21" t="n">
-        <v>1.83545756180829</v>
+        <v>1.83778802395914</v>
       </c>
       <c r="G21" t="n">
-        <v>1.83545756180829</v>
+        <v>1.83778802395914</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
       </c>
       <c r="C22" t="n">
-        <v>1.83443331747517</v>
+        <v>1.83545756180829</v>
       </c>
       <c r="D22" t="n">
-        <v>1.83443331747517</v>
+        <v>1.83545756180829</v>
       </c>
       <c r="E22" t="n">
-        <v>1.83443331747517</v>
+        <v>1.83545756180829</v>
       </c>
       <c r="F22" t="n">
-        <v>1.83443331747517</v>
+        <v>1.83545756180829</v>
       </c>
       <c r="G22" t="n">
-        <v>1.83443331747517</v>
+        <v>1.83545756180829</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
       </c>
       <c r="C23" t="n">
-        <v>1.83170839477141</v>
+        <v>1.83443331747517</v>
       </c>
       <c r="D23" t="n">
-        <v>1.83170839477141</v>
+        <v>1.83443331747517</v>
       </c>
       <c r="E23" t="n">
-        <v>1.83170839477141</v>
+        <v>1.83443331747517</v>
       </c>
       <c r="F23" t="n">
-        <v>1.83170839477141</v>
+        <v>1.83443331747517</v>
       </c>
       <c r="G23" t="n">
-        <v>1.83170839477141</v>
+        <v>1.83443331747517</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>53</v>
       </c>
       <c r="C24" t="n">
-        <v>1.82914424416601</v>
+        <v>1.83170839477141</v>
       </c>
       <c r="D24" t="n">
-        <v>1.82914424416601</v>
+        <v>1.83170839477141</v>
       </c>
       <c r="E24" t="n">
-        <v>1.82914424416601</v>
+        <v>1.83170839477141</v>
       </c>
       <c r="F24" t="n">
-        <v>1.82914424416601</v>
+        <v>1.83170839477141</v>
       </c>
       <c r="G24" t="n">
-        <v>1.82914424416601</v>
+        <v>1.83170839477141</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
       </c>
       <c r="C25" t="n">
-        <v>1.82890567524206</v>
+        <v>1.82914424416601</v>
       </c>
       <c r="D25" t="n">
-        <v>1.82890567524206</v>
+        <v>1.82914424416601</v>
       </c>
       <c r="E25" t="n">
-        <v>1.82890567524206</v>
+        <v>1.82914424416601</v>
       </c>
       <c r="F25" t="n">
-        <v>1.82890567524206</v>
+        <v>1.82914424416601</v>
       </c>
       <c r="G25" t="n">
-        <v>1.82890567524206</v>
+        <v>1.82914424416601</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>53</v>
       </c>
       <c r="C26" t="n">
-        <v>1.82922689710291</v>
+        <v>1.82890567524206</v>
       </c>
       <c r="D26" t="n">
-        <v>1.82922689710291</v>
+        <v>1.82890567524206</v>
       </c>
       <c r="E26" t="n">
-        <v>1.82922689710291</v>
+        <v>1.82890567524206</v>
       </c>
       <c r="F26" t="n">
-        <v>1.82922689710291</v>
+        <v>1.82890567524206</v>
       </c>
       <c r="G26" t="n">
-        <v>1.82922689710291</v>
+        <v>1.82890567524206</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>53</v>
       </c>
       <c r="C27" t="n">
-        <v>1.82058784642529</v>
+        <v>1.82922689710291</v>
       </c>
       <c r="D27" t="n">
-        <v>1.82058784642529</v>
+        <v>1.82922689710291</v>
       </c>
       <c r="E27" t="n">
-        <v>1.82058784642529</v>
+        <v>1.82922689710291</v>
       </c>
       <c r="F27" t="n">
-        <v>1.82058784642529</v>
+        <v>1.82922689710291</v>
       </c>
       <c r="G27" t="n">
-        <v>1.82058784642529</v>
+        <v>1.82922689710291</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28" t="n">
+        <v>1.82058784642529</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.82058784642529</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.82058784642529</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.82058784642529</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.82058784642529</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="n">
         <v>1.81974405839619</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D29" t="n">
         <v>1.81974405839619</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E29" t="n">
         <v>1.81974405839619</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F29" t="n">
         <v>1.81974405839619</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G29" t="n">
         <v>1.81974405839619</v>
       </c>
-      <c r="H28"/>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1891,621 +1927,639 @@
         <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>0.179631657193828</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="D3" t="n">
-        <v>0.179789690259185</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="E3" t="n">
-        <v>0.17967163574524</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="F3" t="n">
-        <v>0.17975055191486</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="G3" t="n">
-        <v>0.179709995623272</v>
+        <v>0.177488907352083</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.17927299843674</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.179633362589919</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.179362899545495</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.179544287893867</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.17945807322074</v>
-      </c>
-      <c r="H4"/>
+        <v>0.177488907352083</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>0.178676846210479</v>
+        <v>0.177132718876846</v>
       </c>
       <c r="D5" t="n">
-        <v>0.179286861089901</v>
+        <v>0.177364828116175</v>
       </c>
       <c r="E5" t="n">
-        <v>0.178831833625589</v>
+        <v>0.177183946273722</v>
       </c>
       <c r="F5" t="n">
-        <v>0.179128860096828</v>
+        <v>0.177308835329834</v>
       </c>
       <c r="G5" t="n">
-        <v>0.178978299380437</v>
+        <v>0.177250500058859</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>37</v>
       </c>
       <c r="C6" t="n">
-        <v>0.17798605084545</v>
+        <v>0.176545062328091</v>
       </c>
       <c r="D6" t="n">
-        <v>0.178814128099015</v>
+        <v>0.177019477299334</v>
       </c>
       <c r="E6" t="n">
-        <v>0.178175828044343</v>
+        <v>0.176657767504993</v>
       </c>
       <c r="F6" t="n">
-        <v>0.178603501024869</v>
+        <v>0.176905279436523</v>
       </c>
       <c r="G6" t="n">
-        <v>0.178383881634385</v>
+        <v>0.176780382261289</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>0.177493116847839</v>
+        <v>0.175836376502981</v>
       </c>
       <c r="D7" t="n">
-        <v>0.178565612739398</v>
+        <v>0.176559263317728</v>
       </c>
       <c r="E7" t="n">
-        <v>0.177732257458286</v>
+        <v>0.175985168114377</v>
       </c>
       <c r="F7" t="n">
-        <v>0.17828403747115</v>
+        <v>0.176368498721532</v>
       </c>
       <c r="G7" t="n">
-        <v>0.177986487174239</v>
+        <v>0.176170877125408</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>0.177053212645352</v>
+        <v>0.175280170582271</v>
       </c>
       <c r="D8" t="n">
-        <v>0.178374579228337</v>
+        <v>0.176258237828965</v>
       </c>
       <c r="E8" t="n">
-        <v>0.177335345390246</v>
+        <v>0.175484450172153</v>
       </c>
       <c r="F8" t="n">
-        <v>0.178014954214097</v>
+        <v>0.175993111078415</v>
       </c>
       <c r="G8" t="n">
-        <v>0.177635591823294</v>
+        <v>0.175726920338394</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>0.176869651348036</v>
+        <v>0.174760781127953</v>
       </c>
       <c r="D9" t="n">
-        <v>0.178463834682415</v>
+        <v>0.175995720975638</v>
       </c>
       <c r="E9" t="n">
-        <v>0.177228914390932</v>
+        <v>0.175033988276717</v>
       </c>
       <c r="F9" t="n">
-        <v>0.178059983512927</v>
+        <v>0.17566783217312</v>
       </c>
       <c r="G9" t="n">
-        <v>0.177606216465528</v>
+        <v>0.175305233000418</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>37</v>
       </c>
       <c r="C10" t="n">
-        <v>0.176902648359018</v>
+        <v>0.174494183436181</v>
       </c>
       <c r="D10" t="n">
-        <v>0.178820980902018</v>
+        <v>0.176041813852002</v>
       </c>
       <c r="E10" t="n">
-        <v>0.177331192989952</v>
+        <v>0.174837664234795</v>
       </c>
       <c r="F10" t="n">
-        <v>0.178304514294087</v>
+        <v>0.175617958173857</v>
       </c>
       <c r="G10" t="n">
-        <v>0.177810845032474</v>
+        <v>0.175201524797698</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>37</v>
       </c>
       <c r="C11" t="n">
-        <v>0.177319492713867</v>
+        <v>0.174425012911415</v>
       </c>
       <c r="D11" t="n">
-        <v>0.179656881979796</v>
+        <v>0.176341028797317</v>
       </c>
       <c r="E11" t="n">
-        <v>0.177836329241723</v>
+        <v>0.174840587654559</v>
       </c>
       <c r="F11" t="n">
-        <v>0.179026594341477</v>
+        <v>0.175811670036779</v>
       </c>
       <c r="G11" t="n">
-        <v>0.178416875424096</v>
+        <v>0.17530613231816</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12" t="n">
-        <v>0.178168123769743</v>
+        <v>0.174707568799361</v>
       </c>
       <c r="D12" t="n">
-        <v>0.180917807497743</v>
+        <v>0.17708587706553</v>
       </c>
       <c r="E12" t="n">
-        <v>0.178772379617937</v>
+        <v>0.175244079021371</v>
       </c>
       <c r="F12" t="n">
-        <v>0.180217241740793</v>
+        <v>0.176435908897983</v>
       </c>
       <c r="G12" t="n">
-        <v>0.17952137159993</v>
+        <v>0.175820844345477</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>0.179532514076295</v>
+        <v>0.175455952428342</v>
       </c>
       <c r="D13" t="n">
-        <v>0.182802378560973</v>
+        <v>0.178285035571692</v>
       </c>
       <c r="E13" t="n">
-        <v>0.180255449090363</v>
+        <v>0.176098196395223</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1819565678666</v>
+        <v>0.177562931966644</v>
       </c>
       <c r="G13" t="n">
-        <v>0.181132644606984</v>
+        <v>0.176835949702513</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
       <c r="C14" t="n">
-        <v>0.181358645687467</v>
+        <v>0.17667904066064</v>
       </c>
       <c r="D14" t="n">
-        <v>0.185341372459254</v>
+        <v>0.180098050211424</v>
       </c>
       <c r="E14" t="n">
-        <v>0.182256005653154</v>
+        <v>0.177475229763639</v>
       </c>
       <c r="F14" t="n">
-        <v>0.184311227447135</v>
+        <v>0.179237554790753</v>
       </c>
       <c r="G14" t="n">
-        <v>0.183315645851974</v>
+        <v>0.178398453718015</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="n">
-        <v>0.183675347331059</v>
+        <v>0.17844528494371</v>
       </c>
       <c r="D15" t="n">
-        <v>0.188288564721464</v>
+        <v>0.182543030553664</v>
       </c>
       <c r="E15" t="n">
-        <v>0.184678425583895</v>
+        <v>0.179398256798557</v>
       </c>
       <c r="F15" t="n">
-        <v>0.187109226793652</v>
+        <v>0.181520374359942</v>
       </c>
       <c r="G15" t="n">
-        <v>0.185904385138222</v>
+        <v>0.18048775199931</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>37</v>
       </c>
       <c r="C16" t="n">
-        <v>0.185874454481742</v>
+        <v>0.180676976879638</v>
       </c>
       <c r="D16" t="n">
-        <v>0.191152561193824</v>
+        <v>0.18544167725939</v>
       </c>
       <c r="E16" t="n">
-        <v>0.187002131807584</v>
+        <v>0.18177405435685</v>
       </c>
       <c r="F16" t="n">
-        <v>0.189836337770437</v>
+        <v>0.184254428881734</v>
       </c>
       <c r="G16" t="n">
-        <v>0.188435155802012</v>
+        <v>0.182974518943434</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>0.187597664590919</v>
+        <v>0.182732473463869</v>
       </c>
       <c r="D17" t="n">
-        <v>0.193682885252189</v>
+        <v>0.188385742106071</v>
       </c>
       <c r="E17" t="n">
-        <v>0.188836062377426</v>
+        <v>0.184101585720082</v>
       </c>
       <c r="F17" t="n">
-        <v>0.19214589055804</v>
+        <v>0.186979947359272</v>
       </c>
       <c r="G17" t="n">
-        <v>0.190561412948149</v>
+        <v>0.185431996016489</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>0.190143076571054</v>
+        <v>0.184409333550216</v>
       </c>
       <c r="D18" t="n">
-        <v>0.19700069972871</v>
+        <v>0.190921193082136</v>
       </c>
       <c r="E18" t="n">
-        <v>0.191564343741575</v>
+        <v>0.185954841500254</v>
       </c>
       <c r="F18" t="n">
-        <v>0.195234797885322</v>
+        <v>0.189296106593527</v>
       </c>
       <c r="G18" t="n">
-        <v>0.193478902179122</v>
+        <v>0.187463891885475</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
       <c r="C19" t="n">
-        <v>0.192900864887603</v>
+        <v>0.186875084577006</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2005988060823</v>
+        <v>0.194153809238696</v>
       </c>
       <c r="E19" t="n">
-        <v>0.194530255621355</v>
+        <v>0.188690155210005</v>
       </c>
       <c r="F19" t="n">
-        <v>0.198623425012498</v>
+        <v>0.192359483288335</v>
       </c>
       <c r="G19" t="n">
-        <v>0.19668221246379</v>
+        <v>0.190386628418969</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
       <c r="C20" t="n">
-        <v>0.195671776725839</v>
+        <v>0.189651006305692</v>
       </c>
       <c r="D20" t="n">
-        <v>0.20413908491666</v>
+        <v>0.197907835853424</v>
       </c>
       <c r="E20" t="n">
-        <v>0.197429925533881</v>
+        <v>0.191662055382049</v>
       </c>
       <c r="F20" t="n">
-        <v>0.201999360221743</v>
+        <v>0.195797125342348</v>
       </c>
       <c r="G20" t="n">
-        <v>0.199869947811417</v>
+        <v>0.193582909132937</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>37</v>
       </c>
       <c r="C21" t="n">
-        <v>0.194859274560922</v>
+        <v>0.192482502488987</v>
       </c>
       <c r="D21" t="n">
-        <v>0.204291591936495</v>
+        <v>0.201471090172118</v>
       </c>
       <c r="E21" t="n">
-        <v>0.196880747839616</v>
+        <v>0.194538877037902</v>
       </c>
       <c r="F21" t="n">
-        <v>0.201877170356214</v>
+        <v>0.199062851489513</v>
       </c>
       <c r="G21" t="n">
-        <v>0.199450884213243</v>
+        <v>0.19673801786827</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>37</v>
       </c>
       <c r="C22" t="n">
-        <v>0.193854897207734</v>
+        <v>0.194938557620534</v>
       </c>
       <c r="D22" t="n">
-        <v>0.204326255586282</v>
+        <v>0.2047997716829</v>
       </c>
       <c r="E22" t="n">
-        <v>0.196258232633545</v>
+        <v>0.19711636332682</v>
       </c>
       <c r="F22" t="n">
-        <v>0.201646292876703</v>
+        <v>0.202019465829542</v>
       </c>
       <c r="G22" t="n">
-        <v>0.198912226662621</v>
+        <v>0.199532880068981</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
       </c>
       <c r="C23" t="n">
-        <v>0.192926305082088</v>
+        <v>0.194006436108706</v>
       </c>
       <c r="D23" t="n">
-        <v>0.204352272751095</v>
+        <v>0.20490239582973</v>
       </c>
       <c r="E23" t="n">
-        <v>0.195622063439229</v>
+        <v>0.196464920540035</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2015140651805</v>
+        <v>0.201810479327594</v>
       </c>
       <c r="G23" t="n">
-        <v>0.19845819331182</v>
+        <v>0.199132291023529</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="n">
-        <v>0.192109185797938</v>
+        <v>0.193021778884742</v>
       </c>
       <c r="D24" t="n">
-        <v>0.204361885464722</v>
+        <v>0.204768686893026</v>
       </c>
       <c r="E24" t="n">
-        <v>0.194768543867433</v>
+        <v>0.195795902832185</v>
       </c>
       <c r="F24" t="n">
-        <v>0.201159940469538</v>
+        <v>0.201632997716009</v>
       </c>
       <c r="G24" t="n">
-        <v>0.197911170073632</v>
+        <v>0.198571381280338</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>37</v>
       </c>
       <c r="C25" t="n">
-        <v>0.191173969106775</v>
+        <v>0.192054922599413</v>
       </c>
       <c r="D25" t="n">
-        <v>0.204186477825215</v>
+        <v>0.204842852563306</v>
       </c>
       <c r="E25" t="n">
-        <v>0.193889856926381</v>
+        <v>0.195021754700362</v>
       </c>
       <c r="F25" t="n">
-        <v>0.200790829602229</v>
+        <v>0.20136358420395</v>
       </c>
       <c r="G25" t="n">
-        <v>0.197227683230231</v>
+        <v>0.198128768655046</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>37</v>
       </c>
       <c r="C26" t="n">
-        <v>0.19004246582021</v>
+        <v>0.190988537514124</v>
       </c>
       <c r="D26" t="n">
-        <v>0.20405159320397</v>
+        <v>0.204650541631561</v>
       </c>
       <c r="E26" t="n">
-        <v>0.19302555763206</v>
+        <v>0.194200541344442</v>
       </c>
       <c r="F26" t="n">
-        <v>0.200250684249015</v>
+        <v>0.200881880729417</v>
       </c>
       <c r="G26" t="n">
-        <v>0.196590917486636</v>
+        <v>0.197465991321837</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>37</v>
       </c>
       <c r="C27" t="n">
-        <v>0.188844347929419</v>
+        <v>0.190028569660275</v>
       </c>
       <c r="D27" t="n">
-        <v>0.203614208953098</v>
+        <v>0.204309655834323</v>
       </c>
       <c r="E27" t="n">
-        <v>0.192029172852002</v>
+        <v>0.19339044990322</v>
       </c>
       <c r="F27" t="n">
-        <v>0.199676755237748</v>
+        <v>0.200358789014725</v>
       </c>
       <c r="G27" t="n">
-        <v>0.195803204576334</v>
+        <v>0.196831241377378</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
       </c>
       <c r="C28" t="n">
-        <v>0.187874679076802</v>
+        <v>0.188906988861113</v>
       </c>
       <c r="D28" t="n">
-        <v>0.203003066729873</v>
+        <v>0.203934574342543</v>
       </c>
       <c r="E28" t="n">
-        <v>0.191069761427002</v>
+        <v>0.192344867313018</v>
       </c>
       <c r="F28" t="n">
-        <v>0.198989802854419</v>
+        <v>0.199677991790436</v>
       </c>
       <c r="G28" t="n">
-        <v>0.194925808619424</v>
+        <v>0.196093391676872</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.187727808337535</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.203249718609721</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.191333623257815</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.199069899510749</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.195130177853605</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2560,621 +2614,639 @@
         <v>39</v>
       </c>
       <c r="C3" t="n">
-        <v>694987</v>
+        <v>678392</v>
       </c>
       <c r="D3" t="n">
-        <v>695019</v>
+        <v>678392</v>
       </c>
       <c r="E3" t="n">
-        <v>694996</v>
+        <v>678392</v>
       </c>
       <c r="F3" t="n">
-        <v>695011</v>
+        <v>678392</v>
       </c>
       <c r="G3" t="n">
-        <v>695004</v>
+        <v>678392</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="n">
-        <v>699623.6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>702358.8</v>
-      </c>
-      <c r="E4" t="n">
-        <v>700271.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>701637.25</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>701005</v>
-      </c>
-      <c r="H4"/>
+        <v>678392</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>704752.9</v>
+        <v>682467.8</v>
       </c>
       <c r="D5" t="n">
-        <v>710899.2</v>
+        <v>685486.1</v>
       </c>
       <c r="E5" t="n">
-        <v>706278.25</v>
+        <v>683216</v>
       </c>
       <c r="F5" t="n">
-        <v>709435</v>
+        <v>684758</v>
       </c>
       <c r="G5" t="n">
-        <v>707828</v>
+        <v>683965</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>711492.6</v>
+        <v>686921</v>
       </c>
       <c r="D6" t="n">
-        <v>721988.4</v>
+        <v>693605.1</v>
       </c>
       <c r="E6" t="n">
-        <v>714056.25</v>
+        <v>688684</v>
       </c>
       <c r="F6" t="n">
-        <v>719557</v>
+        <v>692028.25</v>
       </c>
       <c r="G6" t="n">
-        <v>716680</v>
+        <v>690465</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>720235.3</v>
+        <v>692993.7</v>
       </c>
       <c r="D7" t="n">
-        <v>736334.4</v>
+        <v>704514.8</v>
       </c>
       <c r="E7" t="n">
-        <v>724189.75</v>
+        <v>695856.25</v>
       </c>
       <c r="F7" t="n">
-        <v>732403.75</v>
+        <v>701538.5</v>
       </c>
       <c r="G7" t="n">
-        <v>728344.5</v>
+        <v>698762</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>731247.1</v>
+        <v>701605.4</v>
       </c>
       <c r="D8" t="n">
-        <v>754268.1</v>
+        <v>718308.4</v>
       </c>
       <c r="E8" t="n">
-        <v>736835.5</v>
+        <v>705499.75</v>
       </c>
       <c r="F8" t="n">
-        <v>748143.25</v>
+        <v>714121</v>
       </c>
       <c r="G8" t="n">
-        <v>742835</v>
+        <v>709486.5</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
       </c>
       <c r="C9" t="n">
-        <v>745272.1</v>
+        <v>712514.3</v>
       </c>
       <c r="D9" t="n">
-        <v>775737</v>
+        <v>735834</v>
       </c>
       <c r="E9" t="n">
-        <v>752459.5</v>
+        <v>717604</v>
       </c>
       <c r="F9" t="n">
-        <v>767255</v>
+        <v>729548</v>
       </c>
       <c r="G9" t="n">
-        <v>760137</v>
+        <v>723036.5</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>761602.8</v>
+        <v>725938.7</v>
       </c>
       <c r="D10" t="n">
-        <v>800205.7</v>
+        <v>756908</v>
       </c>
       <c r="E10" t="n">
-        <v>770212.5</v>
+        <v>732496.25</v>
       </c>
       <c r="F10" t="n">
-        <v>789129.25</v>
+        <v>748112.75</v>
       </c>
       <c r="G10" t="n">
-        <v>780145.5</v>
+        <v>739576</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>39</v>
       </c>
       <c r="C11" t="n">
-        <v>776527.6</v>
+        <v>741580.6</v>
       </c>
       <c r="D11" t="n">
-        <v>825238.7</v>
+        <v>780474.2</v>
       </c>
       <c r="E11" t="n">
-        <v>787421.25</v>
+        <v>749579.75</v>
       </c>
       <c r="F11" t="n">
-        <v>810879.25</v>
+        <v>769767</v>
       </c>
       <c r="G11" t="n">
-        <v>799335.5</v>
+        <v>758393.5</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="n">
-        <v>789530.2</v>
+        <v>756163.5</v>
       </c>
       <c r="D12" t="n">
-        <v>846885.5</v>
+        <v>804645.9</v>
       </c>
       <c r="E12" t="n">
-        <v>801507.75</v>
+        <v>766442.25</v>
       </c>
       <c r="F12" t="n">
-        <v>830625.25</v>
+        <v>791360.5</v>
       </c>
       <c r="G12" t="n">
-        <v>815881.5</v>
+        <v>776581</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
       </c>
       <c r="C13" t="n">
-        <v>806602.6</v>
+        <v>767836.8</v>
       </c>
       <c r="D13" t="n">
-        <v>875056.4</v>
+        <v>826668</v>
       </c>
       <c r="E13" t="n">
-        <v>820857.75</v>
+        <v>780653</v>
       </c>
       <c r="F13" t="n">
-        <v>855607</v>
+        <v>810333.25</v>
       </c>
       <c r="G13" t="n">
-        <v>837705</v>
+        <v>792132</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14" t="n">
-        <v>825856.6</v>
+        <v>784829.3</v>
       </c>
       <c r="D14" t="n">
-        <v>906202.7</v>
+        <v>854216.7</v>
       </c>
       <c r="E14" t="n">
-        <v>842535.25</v>
+        <v>799271.5</v>
       </c>
       <c r="F14" t="n">
-        <v>883580</v>
+        <v>834265.25</v>
       </c>
       <c r="G14" t="n">
-        <v>862199</v>
+        <v>813424.5</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
       <c r="C15" t="n">
-        <v>844995.1</v>
+        <v>804768.6</v>
       </c>
       <c r="D15" t="n">
-        <v>937120.9</v>
+        <v>884229.3</v>
       </c>
       <c r="E15" t="n">
-        <v>863964.75</v>
+        <v>820390.5</v>
       </c>
       <c r="F15" t="n">
-        <v>911562.5</v>
+        <v>860977.75</v>
       </c>
       <c r="G15" t="n">
-        <v>887091.5</v>
+        <v>837270</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>39</v>
       </c>
       <c r="C16" t="n">
-        <v>842615</v>
+        <v>824393.1</v>
       </c>
       <c r="D16" t="n">
-        <v>949393.2</v>
+        <v>916747.5</v>
       </c>
       <c r="E16" t="n">
-        <v>864733.75</v>
+        <v>841595.5</v>
       </c>
       <c r="F16" t="n">
-        <v>918328.75</v>
+        <v>888942.5</v>
       </c>
       <c r="G16" t="n">
-        <v>890471.5</v>
+        <v>861327</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>840767.5</v>
+        <v>841957.9</v>
       </c>
       <c r="D17" t="n">
-        <v>962650.1</v>
+        <v>947661.8</v>
       </c>
       <c r="E17" t="n">
-        <v>865229.75</v>
+        <v>862023.75</v>
       </c>
       <c r="F17" t="n">
-        <v>925444.25</v>
+        <v>914285.75</v>
       </c>
       <c r="G17" t="n">
-        <v>893312</v>
+        <v>884107.5</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>39</v>
       </c>
       <c r="C18" t="n">
-        <v>839249.2</v>
+        <v>839286.1</v>
       </c>
       <c r="D18" t="n">
-        <v>974929.1</v>
+        <v>960488.9</v>
       </c>
       <c r="E18" t="n">
-        <v>865450.25</v>
+        <v>861889.5</v>
       </c>
       <c r="F18" t="n">
-        <v>932827.25</v>
+        <v>920962</v>
       </c>
       <c r="G18" t="n">
-        <v>896734.5</v>
+        <v>887623.5</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>836125.1</v>
+        <v>837296.2</v>
       </c>
       <c r="D19" t="n">
-        <v>987479.3</v>
+        <v>973193.6</v>
       </c>
       <c r="E19" t="n">
-        <v>866932.75</v>
+        <v>863150.25</v>
       </c>
       <c r="F19" t="n">
-        <v>940888.75</v>
+        <v>929003.75</v>
       </c>
       <c r="G19" t="n">
-        <v>900157.5</v>
+        <v>891128</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="n">
-        <v>834236.8</v>
+        <v>834065.7</v>
       </c>
       <c r="D20" t="n">
-        <v>999592.3</v>
+        <v>985096</v>
       </c>
       <c r="E20" t="n">
-        <v>868047.25</v>
+        <v>864528.75</v>
       </c>
       <c r="F20" t="n">
-        <v>948190.25</v>
+        <v>935710.5</v>
       </c>
       <c r="G20" t="n">
-        <v>905146</v>
+        <v>894394.5</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="n">
-        <v>832571.1</v>
+        <v>831697.2</v>
       </c>
       <c r="D21" t="n">
-        <v>1011526.9</v>
+        <v>997418.4</v>
       </c>
       <c r="E21" t="n">
-        <v>869193.25</v>
+        <v>865658</v>
       </c>
       <c r="F21" t="n">
-        <v>956757.75</v>
+        <v>942174.5</v>
       </c>
       <c r="G21" t="n">
-        <v>909101</v>
+        <v>898180</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>39</v>
       </c>
       <c r="C22" t="n">
-        <v>832584.3</v>
+        <v>828706.4</v>
       </c>
       <c r="D22" t="n">
-        <v>1023776.8</v>
+        <v>1007448.8</v>
       </c>
       <c r="E22" t="n">
-        <v>870186.5</v>
+        <v>865387.5</v>
       </c>
       <c r="F22" t="n">
-        <v>963346.5</v>
+        <v>949286</v>
       </c>
       <c r="G22" t="n">
-        <v>913300</v>
+        <v>902101</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>39</v>
       </c>
       <c r="C23" t="n">
-        <v>828533.5</v>
+        <v>826473.6</v>
       </c>
       <c r="D23" t="n">
-        <v>1031709.7</v>
+        <v>1019249.5</v>
       </c>
       <c r="E23" t="n">
-        <v>869279.25</v>
+        <v>865891</v>
       </c>
       <c r="F23" t="n">
-        <v>968802</v>
+        <v>955675.5</v>
       </c>
       <c r="G23" t="n">
-        <v>915873</v>
+        <v>906571.5</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>39</v>
       </c>
       <c r="C24" t="n">
-        <v>825322.5</v>
+        <v>822662.3</v>
       </c>
       <c r="D24" t="n">
-        <v>1041324.5</v>
+        <v>1031164.8</v>
       </c>
       <c r="E24" t="n">
-        <v>868611.25</v>
+        <v>864962.25</v>
       </c>
       <c r="F24" t="n">
-        <v>974424.75</v>
+        <v>961878.25</v>
       </c>
       <c r="G24" t="n">
-        <v>918141.5</v>
+        <v>908966.5</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
       </c>
       <c r="C25" t="n">
-        <v>822596.8</v>
+        <v>820239.1</v>
       </c>
       <c r="D25" t="n">
-        <v>1050053</v>
+        <v>1040365.1</v>
       </c>
       <c r="E25" t="n">
-        <v>867923</v>
+        <v>864440.75</v>
       </c>
       <c r="F25" t="n">
-        <v>978865.75</v>
+        <v>967001.5</v>
       </c>
       <c r="G25" t="n">
-        <v>919612</v>
+        <v>910942</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
       </c>
       <c r="C26" t="n">
-        <v>818844</v>
+        <v>815215.9</v>
       </c>
       <c r="D26" t="n">
-        <v>1056933.5</v>
+        <v>1045736.9</v>
       </c>
       <c r="E26" t="n">
-        <v>866700.75</v>
+        <v>863865.25</v>
       </c>
       <c r="F26" t="n">
-        <v>981422.75</v>
+        <v>970339.75</v>
       </c>
       <c r="G26" t="n">
-        <v>920840.5</v>
+        <v>911214.5</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>39</v>
       </c>
       <c r="C27" t="n">
-        <v>812757.4</v>
+        <v>810211.8</v>
       </c>
       <c r="D27" t="n">
-        <v>1059757.3</v>
+        <v>1049541.6</v>
       </c>
       <c r="E27" t="n">
-        <v>864025</v>
+        <v>861856.25</v>
       </c>
       <c r="F27" t="n">
-        <v>982058.5</v>
+        <v>973784</v>
       </c>
       <c r="G27" t="n">
-        <v>920762</v>
+        <v>912243.5</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="n">
-        <v>806317.1</v>
+        <v>806488.8</v>
       </c>
       <c r="D28" t="n">
-        <v>1064044.1</v>
+        <v>1052809.7</v>
       </c>
       <c r="E28" t="n">
-        <v>860776.25</v>
+        <v>860220.75</v>
       </c>
       <c r="F28" t="n">
-        <v>984259</v>
+        <v>973819.75</v>
       </c>
       <c r="G28" t="n">
-        <v>918622</v>
+        <v>910971.5</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="n">
+        <v>802774.7</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1056239</v>
+      </c>
+      <c r="E29" t="n">
+        <v>855886</v>
+      </c>
+      <c r="F29" t="n">
+        <v>975609</v>
+      </c>
+      <c r="G29" t="n">
+        <v>909146.5</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3229,621 +3301,639 @@
         <v>41</v>
       </c>
       <c r="C3" t="n">
-        <v>325331</v>
+        <v>325645</v>
       </c>
       <c r="D3" t="n">
-        <v>325339</v>
+        <v>325645</v>
       </c>
       <c r="E3" t="n">
-        <v>325333</v>
+        <v>325645</v>
       </c>
       <c r="F3" t="n">
-        <v>325337</v>
+        <v>325645</v>
       </c>
       <c r="G3" t="n">
-        <v>325335</v>
+        <v>325645</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" t="n">
-        <v>324183.3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>326036.1</v>
-      </c>
-      <c r="E4" t="n">
-        <v>324630.75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>325558</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>325124</v>
-      </c>
-      <c r="H4"/>
+        <v>325645</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>41</v>
       </c>
       <c r="C5" t="n">
-        <v>320840.7</v>
+        <v>324937.8</v>
       </c>
       <c r="D5" t="n">
-        <v>324172.5</v>
+        <v>326972</v>
       </c>
       <c r="E5" t="n">
-        <v>321668.5</v>
+        <v>325433.25</v>
       </c>
       <c r="F5" t="n">
-        <v>323419.75</v>
+        <v>326477</v>
       </c>
       <c r="G5" t="n">
-        <v>322484.5</v>
+        <v>325939</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
       </c>
       <c r="C6" t="n">
-        <v>314721.3</v>
+        <v>322107.6</v>
       </c>
       <c r="D6" t="n">
-        <v>319321.9</v>
+        <v>325703.1</v>
       </c>
       <c r="E6" t="n">
-        <v>315831</v>
+        <v>323040</v>
       </c>
       <c r="F6" t="n">
-        <v>318286.5</v>
+        <v>324850.25</v>
       </c>
       <c r="G6" t="n">
-        <v>317026</v>
+        <v>323990.5</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
       <c r="C7" t="n">
-        <v>306980.9</v>
+        <v>316407.1</v>
       </c>
       <c r="D7" t="n">
-        <v>313027</v>
+        <v>321508.9</v>
       </c>
       <c r="E7" t="n">
-        <v>308412</v>
+        <v>317610.5</v>
       </c>
       <c r="F7" t="n">
-        <v>311398.75</v>
+        <v>320170.5</v>
       </c>
       <c r="G7" t="n">
-        <v>309932.5</v>
+        <v>318811.5</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="n">
-        <v>296602.8</v>
+        <v>308959.8</v>
       </c>
       <c r="D8" t="n">
-        <v>303883.5</v>
+        <v>315229.4</v>
       </c>
       <c r="E8" t="n">
-        <v>298553.75</v>
+        <v>310379.75</v>
       </c>
       <c r="F8" t="n">
-        <v>302028.5</v>
+        <v>313612.5</v>
       </c>
       <c r="G8" t="n">
-        <v>300212</v>
+        <v>311812.5</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>41</v>
       </c>
       <c r="C9" t="n">
-        <v>285102.1</v>
+        <v>299015</v>
       </c>
       <c r="D9" t="n">
-        <v>293285.2</v>
+        <v>306400.1</v>
       </c>
       <c r="E9" t="n">
-        <v>287065.25</v>
+        <v>300493.75</v>
       </c>
       <c r="F9" t="n">
-        <v>291160.75</v>
+        <v>304045.25</v>
       </c>
       <c r="G9" t="n">
-        <v>289057.5</v>
+        <v>302014</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>272421.1</v>
+        <v>287287.8</v>
       </c>
       <c r="D10" t="n">
-        <v>281500.5</v>
+        <v>295662.4</v>
       </c>
       <c r="E10" t="n">
-        <v>274532.75</v>
+        <v>289000.25</v>
       </c>
       <c r="F10" t="n">
-        <v>279070.75</v>
+        <v>293057.25</v>
       </c>
       <c r="G10" t="n">
-        <v>276586.5</v>
+        <v>290732</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>262618.9</v>
+        <v>274334.8</v>
       </c>
       <c r="D11" t="n">
-        <v>272456.9</v>
+        <v>283448</v>
       </c>
       <c r="E11" t="n">
-        <v>264687.5</v>
+        <v>276229.25</v>
       </c>
       <c r="F11" t="n">
-        <v>269788.75</v>
+        <v>280634.75</v>
       </c>
       <c r="G11" t="n">
-        <v>267086</v>
+        <v>278082.5</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
       </c>
       <c r="C12" t="n">
-        <v>258038.3</v>
+        <v>264205.8</v>
       </c>
       <c r="D12" t="n">
-        <v>268868.7</v>
+        <v>274063.8</v>
       </c>
       <c r="E12" t="n">
-        <v>260318</v>
+        <v>266217.5</v>
       </c>
       <c r="F12" t="n">
-        <v>265716.75</v>
+        <v>271080.25</v>
       </c>
       <c r="G12" t="n">
-        <v>262894</v>
+        <v>268482.5</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
       <c r="C13" t="n">
-        <v>251404.4</v>
+        <v>259851.5</v>
       </c>
       <c r="D13" t="n">
-        <v>263309.1</v>
+        <v>270543.4</v>
       </c>
       <c r="E13" t="n">
-        <v>253829.25</v>
+        <v>261797</v>
       </c>
       <c r="F13" t="n">
-        <v>259672.5</v>
+        <v>267083.5</v>
       </c>
       <c r="G13" t="n">
-        <v>256533.5</v>
+        <v>264227</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="n">
-        <v>245602.5</v>
+        <v>252823.8</v>
       </c>
       <c r="D14" t="n">
-        <v>259082.4</v>
+        <v>264981.9</v>
       </c>
       <c r="E14" t="n">
-        <v>248425.25</v>
+        <v>255131.5</v>
       </c>
       <c r="F14" t="n">
-        <v>254735.75</v>
+        <v>260934.75</v>
       </c>
       <c r="G14" t="n">
-        <v>251367</v>
+        <v>257757</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
       </c>
       <c r="C15" t="n">
-        <v>242100.1</v>
+        <v>246687.1</v>
       </c>
       <c r="D15" t="n">
-        <v>256627.3</v>
+        <v>260100.5</v>
       </c>
       <c r="E15" t="n">
-        <v>245195.5</v>
+        <v>249454.75</v>
       </c>
       <c r="F15" t="n">
-        <v>252313.5</v>
+        <v>255698.75</v>
       </c>
       <c r="G15" t="n">
-        <v>248305.5</v>
+        <v>252181</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16" t="n">
-        <v>260065.8</v>
+        <v>243028.5</v>
       </c>
       <c r="D16" t="n">
-        <v>275783.7</v>
+        <v>257761.6</v>
       </c>
       <c r="E16" t="n">
-        <v>263303.5</v>
+        <v>245894</v>
       </c>
       <c r="F16" t="n">
-        <v>271014</v>
+        <v>252910.75</v>
       </c>
       <c r="G16" t="n">
-        <v>266711</v>
+        <v>248956</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>41</v>
       </c>
       <c r="C17" t="n">
-        <v>275000.3</v>
+        <v>240266.4</v>
       </c>
       <c r="D17" t="n">
-        <v>292508.1</v>
+        <v>256574</v>
       </c>
       <c r="E17" t="n">
-        <v>278530.5</v>
+        <v>243805.25</v>
       </c>
       <c r="F17" t="n">
-        <v>287115.5</v>
+        <v>251265</v>
       </c>
       <c r="G17" t="n">
-        <v>282493.5</v>
+        <v>247155</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
       </c>
       <c r="C18" t="n">
-        <v>294393.6</v>
+        <v>254615.3</v>
       </c>
       <c r="D18" t="n">
-        <v>314202.6</v>
+        <v>272663.6</v>
       </c>
       <c r="E18" t="n">
-        <v>298603.75</v>
+        <v>258648.25</v>
       </c>
       <c r="F18" t="n">
-        <v>308043.5</v>
+        <v>267101.5</v>
       </c>
       <c r="G18" t="n">
-        <v>302946</v>
+        <v>262346.5</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="n">
-        <v>315179.5</v>
+        <v>273866.1</v>
       </c>
       <c r="D19" t="n">
-        <v>338053.3</v>
+        <v>294025.1</v>
       </c>
       <c r="E19" t="n">
-        <v>320155.75</v>
+        <v>278062.25</v>
       </c>
       <c r="F19" t="n">
-        <v>330969.5</v>
+        <v>287691.75</v>
       </c>
       <c r="G19" t="n">
-        <v>325254</v>
+        <v>282421</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>336021.8</v>
+        <v>294616.8</v>
       </c>
       <c r="D20" t="n">
-        <v>362215</v>
+        <v>317514.9</v>
       </c>
       <c r="E20" t="n">
-        <v>341768.5</v>
+        <v>299287.25</v>
       </c>
       <c r="F20" t="n">
-        <v>354109.75</v>
+        <v>310346.5</v>
       </c>
       <c r="G20" t="n">
-        <v>347301</v>
+        <v>304339.5</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>334571.3</v>
+        <v>315104.7</v>
       </c>
       <c r="D21" t="n">
-        <v>365132.1</v>
+        <v>341391.1</v>
       </c>
       <c r="E21" t="n">
-        <v>341143.5</v>
+        <v>320445.5</v>
       </c>
       <c r="F21" t="n">
-        <v>355549.25</v>
+        <v>333189.5</v>
       </c>
       <c r="G21" t="n">
-        <v>347714</v>
+        <v>326369</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>41</v>
       </c>
       <c r="C22" t="n">
-        <v>332949.2</v>
+        <v>333640.2</v>
       </c>
       <c r="D22" t="n">
-        <v>367830.7</v>
+        <v>363773.1</v>
       </c>
       <c r="E22" t="n">
-        <v>340193.5</v>
+        <v>339595.75</v>
       </c>
       <c r="F22" t="n">
-        <v>357018.25</v>
+        <v>354483.25</v>
       </c>
       <c r="G22" t="n">
-        <v>348168</v>
+        <v>346320.5</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23" t="n">
-        <v>331402.9</v>
+        <v>332032.2</v>
       </c>
       <c r="D23" t="n">
-        <v>371283.9</v>
+        <v>366393.6</v>
       </c>
       <c r="E23" t="n">
-        <v>340006.75</v>
+        <v>338565.25</v>
       </c>
       <c r="F23" t="n">
-        <v>359189.5</v>
+        <v>355840.5</v>
       </c>
       <c r="G23" t="n">
-        <v>348853</v>
+        <v>346089.5</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
       </c>
       <c r="C24" t="n">
-        <v>330218.2</v>
+        <v>330401.5</v>
       </c>
       <c r="D24" t="n">
-        <v>375478.6</v>
+        <v>369883.5</v>
       </c>
       <c r="E24" t="n">
-        <v>339607.75</v>
+        <v>338111</v>
       </c>
       <c r="F24" t="n">
-        <v>361282.75</v>
+        <v>357246.5</v>
       </c>
       <c r="G24" t="n">
-        <v>349586.5</v>
+        <v>346396</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
       </c>
       <c r="C25" t="n">
-        <v>328742.7</v>
+        <v>329013.2</v>
       </c>
       <c r="D25" t="n">
-        <v>379829.2</v>
+        <v>373765.3</v>
       </c>
       <c r="E25" t="n">
-        <v>339388.75</v>
+        <v>337991.25</v>
       </c>
       <c r="F25" t="n">
-        <v>363918.75</v>
+        <v>359466.75</v>
       </c>
       <c r="G25" t="n">
-        <v>350655.5</v>
+        <v>347046.5</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>41</v>
       </c>
       <c r="C26" t="n">
-        <v>328049</v>
+        <v>327418</v>
       </c>
       <c r="D26" t="n">
-        <v>385028.6</v>
+        <v>378278.5</v>
       </c>
       <c r="E26" t="n">
-        <v>339432.25</v>
+        <v>337833.5</v>
       </c>
       <c r="F26" t="n">
-        <v>366388.75</v>
+        <v>362009</v>
       </c>
       <c r="G26" t="n">
-        <v>352342.5</v>
+        <v>347818.5</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
       </c>
       <c r="C27" t="n">
-        <v>328052.2</v>
+        <v>326310.7</v>
       </c>
       <c r="D27" t="n">
-        <v>389833.4</v>
+        <v>382415.3</v>
       </c>
       <c r="E27" t="n">
-        <v>339904.25</v>
+        <v>337887</v>
       </c>
       <c r="F27" t="n">
-        <v>370072.5</v>
+        <v>364625.25</v>
       </c>
       <c r="G27" t="n">
-        <v>354145.5</v>
+        <v>348718</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>41</v>
       </c>
       <c r="C28" t="n">
-        <v>328169</v>
+        <v>325852.2</v>
       </c>
       <c r="D28" t="n">
-        <v>395461.4</v>
+        <v>388268.4</v>
       </c>
       <c r="E28" t="n">
-        <v>340852.5</v>
+        <v>338664.25</v>
       </c>
       <c r="F28" t="n">
-        <v>374197.75</v>
+        <v>367356.75</v>
       </c>
       <c r="G28" t="n">
-        <v>356702</v>
+        <v>350402.5</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="n">
+        <v>325557.5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>394012.4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>339509.25</v>
+      </c>
+      <c r="F29" t="n">
+        <v>370466.75</v>
+      </c>
+      <c r="G29" t="n">
+        <v>352268</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3898,621 +3988,639 @@
         <v>43</v>
       </c>
       <c r="C3" t="n">
-        <v>64978</v>
+        <v>64863</v>
       </c>
       <c r="D3" t="n">
-        <v>64980</v>
+        <v>64863</v>
       </c>
       <c r="E3" t="n">
-        <v>64979</v>
+        <v>64863</v>
       </c>
       <c r="F3" t="n">
-        <v>64980</v>
+        <v>64863</v>
       </c>
       <c r="G3" t="n">
-        <v>64979</v>
+        <v>64863</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="n">
-        <v>66028.4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>66647.4</v>
-      </c>
-      <c r="E4" t="n">
-        <v>66178</v>
-      </c>
-      <c r="F4" t="n">
-        <v>66487.25</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>66342.5</v>
-      </c>
-      <c r="H4"/>
+        <v>64863</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
       </c>
       <c r="C5" t="n">
-        <v>66556.4</v>
+        <v>65927</v>
       </c>
       <c r="D5" t="n">
-        <v>67689.4</v>
+        <v>66607</v>
       </c>
       <c r="E5" t="n">
-        <v>66830.5</v>
+        <v>66092.5</v>
       </c>
       <c r="F5" t="n">
-        <v>67428</v>
+        <v>66442</v>
       </c>
       <c r="G5" t="n">
-        <v>67110.5</v>
+        <v>66262</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
       </c>
       <c r="C6" t="n">
-        <v>65478</v>
+        <v>66535.7</v>
       </c>
       <c r="D6" t="n">
-        <v>67067</v>
+        <v>67763</v>
       </c>
       <c r="E6" t="n">
-        <v>65855.75</v>
+        <v>66852.75</v>
       </c>
       <c r="F6" t="n">
-        <v>66703.25</v>
+        <v>67477</v>
       </c>
       <c r="G6" t="n">
-        <v>66267.5</v>
+        <v>67182.5</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
       </c>
       <c r="C7" t="n">
-        <v>65130.6</v>
+        <v>65623.8</v>
       </c>
       <c r="D7" t="n">
-        <v>67215.2</v>
+        <v>67382.2</v>
       </c>
       <c r="E7" t="n">
-        <v>65626.75</v>
+        <v>66029</v>
       </c>
       <c r="F7" t="n">
-        <v>66654</v>
+        <v>66912.75</v>
       </c>
       <c r="G7" t="n">
-        <v>66149.5</v>
+        <v>66450</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
       </c>
       <c r="C8" t="n">
-        <v>63489.9</v>
+        <v>65457.4</v>
       </c>
       <c r="D8" t="n">
-        <v>65973.2</v>
+        <v>67617.6</v>
       </c>
       <c r="E8" t="n">
-        <v>64150</v>
+        <v>65941.75</v>
       </c>
       <c r="F8" t="n">
-        <v>65349.25</v>
+        <v>67058.5</v>
       </c>
       <c r="G8" t="n">
-        <v>64729.5</v>
+        <v>66440</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
       </c>
       <c r="C9" t="n">
-        <v>62426</v>
+        <v>63998.7</v>
       </c>
       <c r="D9" t="n">
-        <v>65172.1</v>
+        <v>66532.8</v>
       </c>
       <c r="E9" t="n">
-        <v>63086</v>
+        <v>64503.5</v>
       </c>
       <c r="F9" t="n">
-        <v>64453.75</v>
+        <v>65712</v>
       </c>
       <c r="G9" t="n">
-        <v>63745.5</v>
+        <v>65012.5</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
       </c>
       <c r="C10" t="n">
-        <v>60223.6</v>
+        <v>62958.3</v>
       </c>
       <c r="D10" t="n">
-        <v>63259.2</v>
+        <v>65782.4</v>
       </c>
       <c r="E10" t="n">
-        <v>60928.5</v>
+        <v>63530.5</v>
       </c>
       <c r="F10" t="n">
-        <v>62441.5</v>
+        <v>64886.75</v>
       </c>
       <c r="G10" t="n">
-        <v>61590</v>
+        <v>64110</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
       <c r="C11" t="n">
-        <v>57703.5</v>
+        <v>60704.9</v>
       </c>
       <c r="D11" t="n">
-        <v>60907.4</v>
+        <v>63714.2</v>
       </c>
       <c r="E11" t="n">
-        <v>58419</v>
+        <v>61334.75</v>
       </c>
       <c r="F11" t="n">
-        <v>60031.75</v>
+        <v>62759.25</v>
       </c>
       <c r="G11" t="n">
-        <v>59166</v>
+        <v>61953</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
       <c r="C12" t="n">
-        <v>54880</v>
+        <v>58093.7</v>
       </c>
       <c r="D12" t="n">
-        <v>58281.5</v>
+        <v>61302.5</v>
       </c>
       <c r="E12" t="n">
-        <v>55632.5</v>
+        <v>58752</v>
       </c>
       <c r="F12" t="n">
-        <v>57316.5</v>
+        <v>60299</v>
       </c>
       <c r="G12" t="n">
-        <v>56393.5</v>
+        <v>59499</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13" t="n">
-        <v>51963.3</v>
+        <v>55311.9</v>
       </c>
       <c r="D13" t="n">
-        <v>55518.7</v>
+        <v>58736.4</v>
       </c>
       <c r="E13" t="n">
-        <v>52706</v>
+        <v>55950.75</v>
       </c>
       <c r="F13" t="n">
-        <v>54461</v>
+        <v>57611.25</v>
       </c>
       <c r="G13" t="n">
-        <v>53496</v>
+        <v>56727</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>49591.7</v>
+        <v>52349</v>
       </c>
       <c r="D14" t="n">
-        <v>53461.7</v>
+        <v>55893.3</v>
       </c>
       <c r="E14" t="n">
-        <v>50452.5</v>
+        <v>52978</v>
       </c>
       <c r="F14" t="n">
-        <v>52316.25</v>
+        <v>54726.25</v>
       </c>
       <c r="G14" t="n">
-        <v>51291.5</v>
+        <v>53795.5</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
       </c>
       <c r="C15" t="n">
-        <v>50337.7</v>
+        <v>50036.2</v>
       </c>
       <c r="D15" t="n">
-        <v>54326.2</v>
+        <v>53784.4</v>
       </c>
       <c r="E15" t="n">
-        <v>51196.5</v>
+        <v>50721.75</v>
       </c>
       <c r="F15" t="n">
-        <v>53136.75</v>
+        <v>52543</v>
       </c>
       <c r="G15" t="n">
-        <v>52069.5</v>
+        <v>51564.5</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
       </c>
       <c r="C16" t="n">
-        <v>53225.8</v>
+        <v>50631.7</v>
       </c>
       <c r="D16" t="n">
-        <v>57343.6</v>
+        <v>54680.5</v>
       </c>
       <c r="E16" t="n">
-        <v>54043.5</v>
+        <v>51457</v>
       </c>
       <c r="F16" t="n">
-        <v>56093</v>
+        <v>53345.75</v>
       </c>
       <c r="G16" t="n">
-        <v>54954</v>
+        <v>52296.5</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
       </c>
       <c r="C17" t="n">
-        <v>48208.3</v>
+        <v>53405.6</v>
       </c>
       <c r="D17" t="n">
-        <v>52730.1</v>
+        <v>57657.6</v>
       </c>
       <c r="E17" t="n">
-        <v>49165.25</v>
+        <v>54308</v>
       </c>
       <c r="F17" t="n">
-        <v>51240</v>
+        <v>56279.25</v>
       </c>
       <c r="G17" t="n">
-        <v>50110</v>
+        <v>55225</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18" t="n">
-        <v>46283.5</v>
+        <v>48356.5</v>
       </c>
       <c r="D18" t="n">
-        <v>51058.3</v>
+        <v>52760.1</v>
       </c>
       <c r="E18" t="n">
-        <v>47304.75</v>
+        <v>49252</v>
       </c>
       <c r="F18" t="n">
-        <v>49526.25</v>
+        <v>51410.25</v>
       </c>
       <c r="G18" t="n">
-        <v>48351</v>
+        <v>50208.5</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
       </c>
       <c r="C19" t="n">
-        <v>46345.7</v>
+        <v>46288.8</v>
       </c>
       <c r="D19" t="n">
-        <v>51265.3</v>
+        <v>50974.6</v>
       </c>
       <c r="E19" t="n">
-        <v>47417</v>
+        <v>47220.25</v>
       </c>
       <c r="F19" t="n">
-        <v>49749.5</v>
+        <v>49537.25</v>
       </c>
       <c r="G19" t="n">
-        <v>48515.5</v>
+        <v>48290.5</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
       <c r="C20" t="n">
-        <v>68226</v>
+        <v>46256.4</v>
       </c>
       <c r="D20" t="n">
-        <v>73484.9</v>
+        <v>51230.9</v>
       </c>
       <c r="E20" t="n">
-        <v>69392</v>
+        <v>47230.5</v>
       </c>
       <c r="F20" t="n">
-        <v>71901</v>
+        <v>49637.75</v>
       </c>
       <c r="G20" t="n">
-        <v>70531.5</v>
+        <v>48351.5</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>68129.8</v>
+        <v>48060.9</v>
       </c>
       <c r="D21" t="n">
-        <v>73930.2</v>
+        <v>53394.4</v>
       </c>
       <c r="E21" t="n">
-        <v>69447.25</v>
+        <v>49179.25</v>
       </c>
       <c r="F21" t="n">
-        <v>72184</v>
+        <v>51768</v>
       </c>
       <c r="G21" t="n">
-        <v>70732</v>
+        <v>50376</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
       </c>
       <c r="C22" t="n">
-        <v>67928.8</v>
+        <v>67984.3</v>
       </c>
       <c r="D22" t="n">
-        <v>74344.5</v>
+        <v>73698.6</v>
       </c>
       <c r="E22" t="n">
-        <v>69243.5</v>
+        <v>69187.75</v>
       </c>
       <c r="F22" t="n">
-        <v>72298.25</v>
+        <v>71949.5</v>
       </c>
       <c r="G22" t="n">
-        <v>70694.5</v>
+        <v>70420.5</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>43</v>
       </c>
       <c r="C23" t="n">
-        <v>67504.5</v>
+        <v>67734.5</v>
       </c>
       <c r="D23" t="n">
-        <v>74591.1</v>
+        <v>73884.6</v>
       </c>
       <c r="E23" t="n">
-        <v>69003.25</v>
+        <v>68977</v>
       </c>
       <c r="F23" t="n">
-        <v>72505.75</v>
+        <v>72082.5</v>
       </c>
       <c r="G23" t="n">
-        <v>70616</v>
+        <v>70297</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>43</v>
       </c>
       <c r="C24" t="n">
-        <v>67166.9</v>
+        <v>67312.7</v>
       </c>
       <c r="D24" t="n">
-        <v>75387.2</v>
+        <v>74217.5</v>
       </c>
       <c r="E24" t="n">
-        <v>68998.75</v>
+        <v>68801</v>
       </c>
       <c r="F24" t="n">
-        <v>72930</v>
+        <v>72192.25</v>
       </c>
       <c r="G24" t="n">
-        <v>70820.5</v>
+        <v>70239.5</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>43</v>
       </c>
       <c r="C25" t="n">
-        <v>66945.1</v>
+        <v>67062.2</v>
       </c>
       <c r="D25" t="n">
-        <v>76146.1</v>
+        <v>74992</v>
       </c>
       <c r="E25" t="n">
-        <v>68813.25</v>
+        <v>68732</v>
       </c>
       <c r="F25" t="n">
-        <v>73254</v>
+        <v>72537.75</v>
       </c>
       <c r="G25" t="n">
-        <v>70920.5</v>
+        <v>70352</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
       </c>
       <c r="C26" t="n">
-        <v>66531.6</v>
+        <v>66641.7</v>
       </c>
       <c r="D26" t="n">
-        <v>76851.7</v>
+        <v>75591.8</v>
       </c>
       <c r="E26" t="n">
-        <v>68672.75</v>
+        <v>68634.75</v>
       </c>
       <c r="F26" t="n">
-        <v>73545</v>
+        <v>72887</v>
       </c>
       <c r="G26" t="n">
-        <v>71016.5</v>
+        <v>70399</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
       </c>
       <c r="C27" t="n">
-        <v>66483.5</v>
+        <v>66242.3</v>
       </c>
       <c r="D27" t="n">
-        <v>77917.4</v>
+        <v>76304.1</v>
       </c>
       <c r="E27" t="n">
-        <v>68679.75</v>
+        <v>68414.75</v>
       </c>
       <c r="F27" t="n">
-        <v>74201.25</v>
+        <v>73188.75</v>
       </c>
       <c r="G27" t="n">
-        <v>71346.5</v>
+        <v>70397.5</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28" t="n">
-        <v>66327.9</v>
+        <v>66195.2</v>
       </c>
       <c r="D28" t="n">
-        <v>78815.2</v>
+        <v>77301.3</v>
       </c>
       <c r="E28" t="n">
-        <v>68648.5</v>
+        <v>68404.25</v>
       </c>
       <c r="F28" t="n">
-        <v>74791.75</v>
+        <v>73839</v>
       </c>
       <c r="G28" t="n">
-        <v>71641</v>
+        <v>70615</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="n">
+        <v>65939</v>
+      </c>
+      <c r="D29" t="n">
+        <v>77969.4</v>
+      </c>
+      <c r="E29" t="n">
+        <v>68381.25</v>
+      </c>
+      <c r="F29" t="n">
+        <v>74218.25</v>
+      </c>
+      <c r="G29" t="n">
+        <v>70745.5</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4567,621 +4675,639 @@
         <v>45</v>
       </c>
       <c r="C3" t="n">
-        <v>65361</v>
+        <v>44364</v>
       </c>
       <c r="D3" t="n">
-        <v>65362</v>
+        <v>44364</v>
       </c>
       <c r="E3" t="n">
-        <v>65361</v>
+        <v>44364</v>
       </c>
       <c r="F3" t="n">
-        <v>65362</v>
+        <v>44364</v>
       </c>
       <c r="G3" t="n">
-        <v>65362</v>
+        <v>44364</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="n">
-        <v>65525</v>
-      </c>
-      <c r="D4" t="n">
-        <v>65530</v>
-      </c>
-      <c r="E4" t="n">
-        <v>65526</v>
-      </c>
-      <c r="F4" t="n">
-        <v>65529</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>65527</v>
-      </c>
-      <c r="H4"/>
+        <v>44364.3370385992</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>45</v>
       </c>
       <c r="C5" t="n">
-        <v>65096.1</v>
+        <v>65437</v>
       </c>
       <c r="D5" t="n">
-        <v>65855.1</v>
+        <v>65439</v>
       </c>
       <c r="E5" t="n">
-        <v>65279.5</v>
+        <v>65438</v>
       </c>
       <c r="F5" t="n">
-        <v>65657.25</v>
+        <v>65439</v>
       </c>
       <c r="G5" t="n">
-        <v>65478.5</v>
+        <v>65438</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>45</v>
       </c>
       <c r="C6" t="n">
-        <v>64627.6</v>
+        <v>64958</v>
       </c>
       <c r="D6" t="n">
-        <v>66199</v>
+        <v>65787</v>
       </c>
       <c r="E6" t="n">
-        <v>65018</v>
+        <v>65160.25</v>
       </c>
       <c r="F6" t="n">
-        <v>65831.25</v>
+        <v>65585.5</v>
       </c>
       <c r="G6" t="n">
-        <v>65405.5</v>
+        <v>65367</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
       </c>
       <c r="C7" t="n">
-        <v>64342.1</v>
+        <v>64443.5</v>
       </c>
       <c r="D7" t="n">
-        <v>66812.2</v>
+        <v>66124</v>
       </c>
       <c r="E7" t="n">
-        <v>64941.75</v>
+        <v>64889.75</v>
       </c>
       <c r="F7" t="n">
-        <v>66241</v>
+        <v>65728.25</v>
       </c>
       <c r="G7" t="n">
-        <v>65560.5</v>
+        <v>65340</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
       </c>
       <c r="C8" t="n">
-        <v>63863.8</v>
+        <v>64130.6</v>
       </c>
       <c r="D8" t="n">
-        <v>67495.5</v>
+        <v>66804.5</v>
       </c>
       <c r="E8" t="n">
-        <v>64771</v>
+        <v>64763</v>
       </c>
       <c r="F8" t="n">
-        <v>66556.25</v>
+        <v>66132</v>
       </c>
       <c r="G8" t="n">
-        <v>65707</v>
+        <v>65455</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
       </c>
       <c r="C9" t="n">
-        <v>63456</v>
+        <v>63749</v>
       </c>
       <c r="D9" t="n">
-        <v>68190.2</v>
+        <v>67444.4</v>
       </c>
       <c r="E9" t="n">
-        <v>64617.75</v>
+        <v>64595.75</v>
       </c>
       <c r="F9" t="n">
-        <v>66884.25</v>
+        <v>66480</v>
       </c>
       <c r="G9" t="n">
-        <v>65787</v>
+        <v>65461.5</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
       </c>
       <c r="C10" t="n">
-        <v>63292.5</v>
+        <v>63376.5</v>
       </c>
       <c r="D10" t="n">
-        <v>69108.4</v>
+        <v>68092.5</v>
       </c>
       <c r="E10" t="n">
-        <v>64633.75</v>
+        <v>64379.75</v>
       </c>
       <c r="F10" t="n">
-        <v>67462</v>
+        <v>66811.25</v>
       </c>
       <c r="G10" t="n">
-        <v>66160</v>
+        <v>65454</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
       </c>
       <c r="C11" t="n">
-        <v>63018.5</v>
+        <v>63161.5</v>
       </c>
       <c r="D11" t="n">
-        <v>70054.6</v>
+        <v>69050.7</v>
       </c>
       <c r="E11" t="n">
-        <v>64580.5</v>
+        <v>64313.75</v>
       </c>
       <c r="F11" t="n">
-        <v>68015.5</v>
+        <v>67339.75</v>
       </c>
       <c r="G11" t="n">
-        <v>66317</v>
+        <v>65676.5</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="C12" t="n">
-        <v>62913.8</v>
+        <v>62878.6</v>
       </c>
       <c r="D12" t="n">
-        <v>71005.5</v>
+        <v>69813.7</v>
       </c>
       <c r="E12" t="n">
-        <v>64706</v>
+        <v>64306</v>
       </c>
       <c r="F12" t="n">
-        <v>68728</v>
+        <v>67891</v>
       </c>
       <c r="G12" t="n">
-        <v>66658</v>
+        <v>65837.5</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
       <c r="C13" t="n">
-        <v>63004.4</v>
+        <v>62779.4</v>
       </c>
       <c r="D13" t="n">
-        <v>72091.6</v>
+        <v>70816.3</v>
       </c>
       <c r="E13" t="n">
-        <v>64860</v>
+        <v>64407</v>
       </c>
       <c r="F13" t="n">
-        <v>69620.5</v>
+        <v>68535.75</v>
       </c>
       <c r="G13" t="n">
-        <v>67139.5</v>
+        <v>66073</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>45</v>
       </c>
       <c r="C14" t="n">
-        <v>62909</v>
+        <v>62715.2</v>
       </c>
       <c r="D14" t="n">
-        <v>73236.8</v>
+        <v>71894.1</v>
       </c>
       <c r="E14" t="n">
-        <v>65119</v>
+        <v>64596.5</v>
       </c>
       <c r="F14" t="n">
-        <v>70434.25</v>
+        <v>69180</v>
       </c>
       <c r="G14" t="n">
-        <v>67667</v>
+        <v>66489</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="C15" t="n">
-        <v>62942.7</v>
+        <v>62859.7</v>
       </c>
       <c r="D15" t="n">
-        <v>74636.2</v>
+        <v>73222.5</v>
       </c>
       <c r="E15" t="n">
-        <v>65433.5</v>
+        <v>64829.25</v>
       </c>
       <c r="F15" t="n">
-        <v>71189.25</v>
+        <v>69930.25</v>
       </c>
       <c r="G15" t="n">
-        <v>68164.5</v>
+        <v>67074</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
       </c>
       <c r="C16" t="n">
-        <v>62897.8</v>
+        <v>63059.1</v>
       </c>
       <c r="D16" t="n">
-        <v>75876.9</v>
+        <v>74656</v>
       </c>
       <c r="E16" t="n">
-        <v>65600.5</v>
+        <v>65125.75</v>
       </c>
       <c r="F16" t="n">
-        <v>71979.75</v>
+        <v>70808.25</v>
       </c>
       <c r="G16" t="n">
-        <v>68665.5</v>
+        <v>67649</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
       </c>
       <c r="C17" t="n">
-        <v>63098.7</v>
+        <v>62941.1</v>
       </c>
       <c r="D17" t="n">
-        <v>77050.7</v>
+        <v>76054.1</v>
       </c>
       <c r="E17" t="n">
-        <v>65869.75</v>
+        <v>65384.5</v>
       </c>
       <c r="F17" t="n">
-        <v>72704</v>
+        <v>71659.75</v>
       </c>
       <c r="G17" t="n">
-        <v>69086.5</v>
+        <v>68128.5</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
       </c>
       <c r="C18" t="n">
-        <v>63045.3</v>
+        <v>62964.9</v>
       </c>
       <c r="D18" t="n">
-        <v>77752.1</v>
+        <v>77025.8</v>
       </c>
       <c r="E18" t="n">
-        <v>65936.25</v>
+        <v>65701</v>
       </c>
       <c r="F18" t="n">
-        <v>73249.75</v>
+        <v>72324.25</v>
       </c>
       <c r="G18" t="n">
-        <v>69337</v>
+        <v>68625.5</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>45</v>
       </c>
       <c r="C19" t="n">
-        <v>62612.7</v>
+        <v>62755.9</v>
       </c>
       <c r="D19" t="n">
-        <v>78185.7</v>
+        <v>77745.4</v>
       </c>
       <c r="E19" t="n">
-        <v>65820.5</v>
+        <v>65776.5</v>
       </c>
       <c r="F19" t="n">
-        <v>73501.5</v>
+        <v>72804.75</v>
       </c>
       <c r="G19" t="n">
-        <v>69281</v>
+        <v>68919</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20" t="n">
-        <v>62446</v>
+        <v>62429</v>
       </c>
       <c r="D20" t="n">
-        <v>78896.5</v>
+        <v>78277.8</v>
       </c>
       <c r="E20" t="n">
-        <v>65738.75</v>
+        <v>65588.5</v>
       </c>
       <c r="F20" t="n">
-        <v>73838.25</v>
+        <v>73024.5</v>
       </c>
       <c r="G20" t="n">
-        <v>69501.5</v>
+        <v>69007.5</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
       </c>
       <c r="C21" t="n">
-        <v>62005.9</v>
+        <v>62059</v>
       </c>
       <c r="D21" t="n">
-        <v>79098.9</v>
+        <v>79089.6</v>
       </c>
       <c r="E21" t="n">
-        <v>65392</v>
+        <v>65517.75</v>
       </c>
       <c r="F21" t="n">
-        <v>73763</v>
+        <v>73282.25</v>
       </c>
       <c r="G21" t="n">
-        <v>69305</v>
+        <v>69156</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>61288</v>
+        <v>61419.1</v>
       </c>
       <c r="D22" t="n">
-        <v>79375.8</v>
+        <v>79207</v>
       </c>
       <c r="E22" t="n">
-        <v>64961</v>
+        <v>65053.75</v>
       </c>
       <c r="F22" t="n">
-        <v>73648</v>
+        <v>73419</v>
       </c>
       <c r="G22" t="n">
-        <v>69062</v>
+        <v>68959</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
       </c>
       <c r="C23" t="n">
-        <v>60661.8</v>
+        <v>60854.8</v>
       </c>
       <c r="D23" t="n">
-        <v>79177.3</v>
+        <v>79058.8</v>
       </c>
       <c r="E23" t="n">
-        <v>64446.25</v>
+        <v>64708.75</v>
       </c>
       <c r="F23" t="n">
-        <v>73531.75</v>
+        <v>73240.75</v>
       </c>
       <c r="G23" t="n">
-        <v>68576.5</v>
+        <v>68729.5</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>45</v>
       </c>
       <c r="C24" t="n">
-        <v>60178.4</v>
+        <v>60185.1</v>
       </c>
       <c r="D24" t="n">
-        <v>79301.9</v>
+        <v>78932.5</v>
       </c>
       <c r="E24" t="n">
-        <v>63921.75</v>
+        <v>64201</v>
       </c>
       <c r="F24" t="n">
-        <v>73118.5</v>
+        <v>73047.25</v>
       </c>
       <c r="G24" t="n">
-        <v>68217.5</v>
+        <v>68257</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
       </c>
       <c r="C25" t="n">
-        <v>59414.6</v>
+        <v>59447.7</v>
       </c>
       <c r="D25" t="n">
-        <v>79276.7</v>
+        <v>78821.7</v>
       </c>
       <c r="E25" t="n">
-        <v>63329.75</v>
+        <v>63562</v>
       </c>
       <c r="F25" t="n">
-        <v>72940</v>
+        <v>72731</v>
       </c>
       <c r="G25" t="n">
-        <v>67764.5</v>
+        <v>67697</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>45</v>
       </c>
       <c r="C26" t="n">
-        <v>58777.2</v>
+        <v>58806.6</v>
       </c>
       <c r="D26" t="n">
-        <v>79054.7</v>
+        <v>78655.6</v>
       </c>
       <c r="E26" t="n">
-        <v>62863</v>
+        <v>63047.75</v>
       </c>
       <c r="F26" t="n">
-        <v>72529.5</v>
+        <v>72204.75</v>
       </c>
       <c r="G26" t="n">
-        <v>67391.5</v>
+        <v>67117.5</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
       </c>
       <c r="C27" t="n">
-        <v>57803.7</v>
+        <v>58286.5</v>
       </c>
       <c r="D27" t="n">
-        <v>78157.9</v>
+        <v>78382.4</v>
       </c>
       <c r="E27" t="n">
-        <v>62198</v>
+        <v>62409</v>
       </c>
       <c r="F27" t="n">
-        <v>72132.5</v>
+        <v>71721.5</v>
       </c>
       <c r="G27" t="n">
-        <v>66747.5</v>
+        <v>66582.5</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>45</v>
       </c>
       <c r="C28" t="n">
-        <v>57269.9</v>
+        <v>57394.3</v>
       </c>
       <c r="D28" t="n">
-        <v>78065.2</v>
+        <v>77589.8</v>
       </c>
       <c r="E28" t="n">
-        <v>61804.5</v>
+        <v>61622.75</v>
       </c>
       <c r="F28" t="n">
-        <v>72069</v>
+        <v>70979.5</v>
       </c>
       <c r="G28" t="n">
-        <v>66538.5</v>
+        <v>65789</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="n">
+        <v>56923.8</v>
+      </c>
+      <c r="D29" t="n">
+        <v>77541.5</v>
+      </c>
+      <c r="E29" t="n">
+        <v>60935</v>
+      </c>
+      <c r="F29" t="n">
+        <v>70549.25</v>
+      </c>
+      <c r="G29" t="n">
+        <v>65388</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5236,621 +5362,639 @@
         <v>47</v>
       </c>
       <c r="C3" t="n">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="D3" t="n">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="E3" t="n">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="F3" t="n">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="G3" t="n">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="C4" t="n">
-        <v>175.9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>222</v>
-      </c>
-      <c r="E4" t="n">
-        <v>185</v>
-      </c>
-      <c r="F4" t="n">
-        <v>210</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>198</v>
-      </c>
-      <c r="H4"/>
+        <v>168.031765672152</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
       </c>
       <c r="C5" t="n">
-        <v>172</v>
+        <v>175.9</v>
       </c>
       <c r="D5" t="n">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E5" t="n">
-        <v>182.75</v>
+        <v>185</v>
       </c>
       <c r="F5" t="n">
-        <v>211</v>
+        <v>208.25</v>
       </c>
       <c r="G5" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>47</v>
       </c>
       <c r="C6" t="n">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D6" t="n">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="E6" t="n">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F6" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G6" t="n">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D7" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E7" t="n">
-        <v>171.75</v>
+        <v>182</v>
       </c>
       <c r="F7" t="n">
-        <v>205.25</v>
+        <v>214</v>
       </c>
       <c r="G7" t="n">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D8" t="n">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E8" t="n">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="F8" t="n">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="G8" t="n">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>47</v>
       </c>
       <c r="C9" t="n">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D9" t="n">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E9" t="n">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="F9" t="n">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G9" t="n">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D10" t="n">
-        <v>220</v>
+        <v>228.2</v>
       </c>
       <c r="E10" t="n">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="F10" t="n">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="G10" t="n">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
       <c r="C11" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D11" t="n">
-        <v>217</v>
+        <v>226.1</v>
       </c>
       <c r="E11" t="n">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="F11" t="n">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="G11" t="n">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>47</v>
       </c>
       <c r="C12" t="n">
-        <v>131</v>
+        <v>140.9</v>
       </c>
       <c r="D12" t="n">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="E12" t="n">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F12" t="n">
-        <v>186.25</v>
+        <v>196</v>
       </c>
       <c r="G12" t="n">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>47</v>
       </c>
       <c r="C13" t="n">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D13" t="n">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="E13" t="n">
-        <v>142</v>
+        <v>152.75</v>
       </c>
       <c r="F13" t="n">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="G13" t="n">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>47</v>
       </c>
       <c r="C14" t="n">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D14" t="n">
-        <v>211</v>
+        <v>218.1</v>
       </c>
       <c r="E14" t="n">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F14" t="n">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="G14" t="n">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>47</v>
       </c>
       <c r="C15" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D15" t="n">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E15" t="n">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="F15" t="n">
-        <v>180</v>
+        <v>187.25</v>
       </c>
       <c r="G15" t="n">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
       <c r="C16" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D16" t="n">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="E16" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F16" t="n">
-        <v>181</v>
+        <v>185.25</v>
       </c>
       <c r="G16" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>47</v>
       </c>
       <c r="C17" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D17" t="n">
-        <v>213.1</v>
+        <v>219.1</v>
       </c>
       <c r="E17" t="n">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F17" t="n">
-        <v>181</v>
+        <v>186.25</v>
       </c>
       <c r="G17" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>47</v>
       </c>
       <c r="C18" t="n">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D18" t="n">
-        <v>214.1</v>
+        <v>221</v>
       </c>
       <c r="E18" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F18" t="n">
-        <v>181</v>
+        <v>185.25</v>
       </c>
       <c r="G18" t="n">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>47</v>
       </c>
       <c r="C19" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D19" t="n">
-        <v>217.1</v>
+        <v>218.1</v>
       </c>
       <c r="E19" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F19" t="n">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G19" t="n">
-        <v>150.5</v>
+        <v>154</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>47</v>
       </c>
       <c r="C20" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D20" t="n">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E20" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F20" t="n">
-        <v>183</v>
+        <v>183.25</v>
       </c>
       <c r="G20" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>47</v>
       </c>
       <c r="C21" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D21" t="n">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E21" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F21" t="n">
-        <v>183.25</v>
+        <v>185</v>
       </c>
       <c r="G21" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D22" t="n">
-        <v>217.1</v>
+        <v>225</v>
       </c>
       <c r="E22" t="n">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="F22" t="n">
-        <v>180</v>
+        <v>189.25</v>
       </c>
       <c r="G22" t="n">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>102</v>
+        <v>109.9</v>
       </c>
       <c r="D23" t="n">
-        <v>214</v>
+        <v>226.1</v>
       </c>
       <c r="E23" t="n">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F23" t="n">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="G23" t="n">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>47</v>
       </c>
       <c r="C24" t="n">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D24" t="n">
-        <v>208.1</v>
+        <v>220</v>
       </c>
       <c r="E24" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F24" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="G24" t="n">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>47</v>
       </c>
       <c r="C25" t="n">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D25" t="n">
-        <v>204.2</v>
+        <v>215</v>
       </c>
       <c r="E25" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F25" t="n">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="G25" t="n">
-        <v>139.5</v>
+        <v>146</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>47</v>
       </c>
       <c r="C26" t="n">
-        <v>91.9</v>
+        <v>100.9</v>
       </c>
       <c r="D26" t="n">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E26" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F26" t="n">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="G26" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>47</v>
       </c>
       <c r="C27" t="n">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="D27" t="n">
-        <v>199.1</v>
+        <v>209.1</v>
       </c>
       <c r="E27" t="n">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F27" t="n">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="G27" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>47</v>
       </c>
       <c r="C28" t="n">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D28" t="n">
-        <v>194.1</v>
+        <v>207.1</v>
       </c>
       <c r="E28" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F28" t="n">
-        <v>160.25</v>
+        <v>171</v>
       </c>
       <c r="G28" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="n">
+        <v>90</v>
+      </c>
+      <c r="D29" t="n">
+        <v>205</v>
+      </c>
+      <c r="E29" t="n">
+        <v>108</v>
+      </c>
+      <c r="F29" t="n">
+        <v>167</v>
+      </c>
+      <c r="G29" t="n">
+        <v>134</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5905,621 +6049,639 @@
         <v>49</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00300845923303229</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00356587927672912</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00314275976398717</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="F3" t="n">
-        <v>0.00341869380075227</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00327397537095843</v>
+        <v>0.00332243181798927</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>49</v>
       </c>
-      <c r="C4" t="n">
-        <v>0.00283144305940465</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.00357685587068062</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00298400195865108</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00338025316036044</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.00318494978435881</v>
-      </c>
-      <c r="H4"/>
+        <v>0.00332243181798927</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>49</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00271312871658452</v>
+        <v>0.00292961909021519</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00360624112352895</v>
+        <v>0.00368171684000453</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00288091803546345</v>
+        <v>0.00308655364226539</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0033373541569725</v>
+        <v>0.00348241280795533</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00308495009458764</v>
+        <v>0.00328737004541435</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00258610814228413</v>
+        <v>0.00281130494528424</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00356476972591313</v>
+        <v>0.0037114951316464</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00279004434977188</v>
+        <v>0.00298286906084853</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00327552092356133</v>
+        <v>0.00344179257337252</v>
       </c>
       <c r="G6" t="n">
-        <v>0.003003312433508</v>
+        <v>0.00318858327691656</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>49</v>
       </c>
       <c r="C7" t="n">
-        <v>0.00250897806501642</v>
+        <v>0.0026798108893939</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0035376594426759</v>
+        <v>0.00367129642066469</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00269125384182926</v>
+        <v>0.00289059676343198</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00323343652990917</v>
+        <v>0.00339860333651425</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00292361458012502</v>
+        <v>0.00310783315362021</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>49</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00237968869616159</v>
+        <v>0.00260976914952893</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0035046247302666</v>
+        <v>0.00364921702813989</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0026055460619038</v>
+        <v>0.0028011294473203</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00314823654931325</v>
+        <v>0.00334320025589578</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00285875524235571</v>
+        <v>0.0030295997267556</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>49</v>
       </c>
       <c r="C9" t="n">
-        <v>0.00232335046497614</v>
+        <v>0.00246915337757248</v>
       </c>
       <c r="D9" t="n">
-        <v>0.00352652966315864</v>
+        <v>0.00364053791732282</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0025253150333123</v>
+        <v>0.00270754995202151</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00312432330846299</v>
+        <v>0.00326540771082734</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00280398261722139</v>
+        <v>0.00296851838738943</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00222848395613424</v>
+        <v>0.00242090978764385</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00348189618416227</v>
+        <v>0.00363627081925473</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00247055918816404</v>
+        <v>0.00262365815271687</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00308234842552342</v>
+        <v>0.0032453210435338</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00274129531792864</v>
+        <v>0.00291490056389086</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>49</v>
       </c>
       <c r="C11" t="n">
-        <v>0.00216678300139456</v>
+        <v>0.00232535950261126</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00345623634581763</v>
+        <v>0.00357647801728368</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00240832069257795</v>
+        <v>0.00257110653738549</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00302199975633007</v>
+        <v>0.00319542998619937</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0026740190510074</v>
+        <v>0.00285458501725049</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00210346610727465</v>
+        <v>0.00226388616177185</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00343277936065789</v>
+        <v>0.00357732491606915</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00235747557493252</v>
+        <v>0.00251166638977744</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00297567206595715</v>
+        <v>0.00313896627656593</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00261871463538865</v>
+        <v>0.00278071277360555</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>49</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0020369372304057</v>
+        <v>0.0021900923463495</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00335181189624601</v>
+        <v>0.00354003883639323</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00229227508865032</v>
+        <v>0.0024650893717604</v>
       </c>
       <c r="F13" t="n">
-        <v>0.00293874705100011</v>
+        <v>0.00308004159053906</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00254726264033339</v>
+        <v>0.00271988692248848</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>49</v>
       </c>
       <c r="C14" t="n">
-        <v>0.00196762088715673</v>
+        <v>0.00213682945679137</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00332910328894278</v>
+        <v>0.00349239905192314</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00221219444801371</v>
+        <v>0.00238613523034522</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00289496611571635</v>
+        <v>0.00304867457065234</v>
       </c>
       <c r="G14" t="n">
-        <v>0.002499498925208</v>
+        <v>0.0026546346256631</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>49</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00191002902533041</v>
+        <v>0.00205477029492542</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00332127249883989</v>
+        <v>0.00346367800736371</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00215449338678336</v>
+        <v>0.00231206436127326</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00282491936673181</v>
+        <v>0.00300153033896681</v>
       </c>
       <c r="G15" t="n">
-        <v>0.00243892348408024</v>
+        <v>0.00260824336263972</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>49</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00187294615829694</v>
+        <v>0.00199299739390338</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00327882785286027</v>
+        <v>0.00344811708852824</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00208979658165267</v>
+        <v>0.0022509275555251</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00279673715848323</v>
+        <v>0.00293747909157503</v>
       </c>
       <c r="G16" t="n">
-        <v>0.00241076740859977</v>
+        <v>0.00254504594901716</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>49</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00179604178153809</v>
+        <v>0.00196650150692489</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00325449849667584</v>
+        <v>0.00340326888771559</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00202401572039755</v>
+        <v>0.00218578170752126</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00276768184069448</v>
+        <v>0.00291492036271118</v>
       </c>
       <c r="G17" t="n">
-        <v>0.00234292283228758</v>
+        <v>0.00250628852501591</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
       </c>
       <c r="C18" t="n">
-        <v>0.00174006587202549</v>
+        <v>0.00187385991881131</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00319404127581635</v>
+        <v>0.00338718100603033</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00196736587586974</v>
+        <v>0.00211599318789505</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00272828616525935</v>
+        <v>0.00287920470171662</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00229744228093881</v>
+        <v>0.00244500004930513</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>49</v>
       </c>
       <c r="C19" t="n">
-        <v>0.00166400343394811</v>
+        <v>0.00181606614209056</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00317087869132606</v>
+        <v>0.00331579997296516</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00191630895638922</v>
+        <v>0.00206197955777606</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00269070664027247</v>
+        <v>0.0028418637024273</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0022591126796029</v>
+        <v>0.00239035256641493</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>49</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00162650561197494</v>
+        <v>0.00174410937192124</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0031291860665524</v>
+        <v>0.00329608631262012</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00186332768098209</v>
+        <v>0.00200542365013194</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00263780365151622</v>
+        <v>0.00278869516799991</v>
       </c>
       <c r="G20" t="n">
-        <v>0.00220784214441549</v>
+        <v>0.00235679479163597</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>49</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00158843330274083</v>
+        <v>0.00170742800105249</v>
       </c>
       <c r="D21" t="n">
-        <v>0.00307103002581602</v>
+        <v>0.00327010751485447</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00182077869349005</v>
+        <v>0.00195220469624147</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00259377938485918</v>
+        <v>0.00274233115036973</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00216473928080583</v>
+        <v>0.00230332785633064</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0015472494636909</v>
+        <v>0.00166205427292872</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00302956175519003</v>
+        <v>0.00319038868808869</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00177057784695518</v>
+        <v>0.00191136707210633</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00257066238452016</v>
+        <v>0.00269460309710877</v>
       </c>
       <c r="G22" t="n">
-        <v>0.00214274749060288</v>
+        <v>0.00227377424202274</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
       </c>
       <c r="C23" t="n">
-        <v>0.00150049548837169</v>
+        <v>0.00161947200340142</v>
       </c>
       <c r="D23" t="n">
-        <v>0.00300686993416459</v>
+        <v>0.00315182577455253</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00171641283163083</v>
+        <v>0.0018600680669157</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00251320618716194</v>
+        <v>0.00268239761904253</v>
       </c>
       <c r="G23" t="n">
-        <v>0.00209721196091367</v>
+        <v>0.00223620774188697</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00144050082417198</v>
+        <v>0.00157918340700601</v>
       </c>
       <c r="D24" t="n">
-        <v>0.00293757049159941</v>
+        <v>0.00313719228309804</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00167914258146909</v>
+        <v>0.00180678875393952</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00248892650257071</v>
+        <v>0.00261879216886046</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00205238694231354</v>
+        <v>0.00219984227295264</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>49</v>
       </c>
       <c r="C25" t="n">
-        <v>0.00141052925362796</v>
+        <v>0.00151687316255685</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00288821380785933</v>
+        <v>0.0030668056870095</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00163628428754907</v>
+        <v>0.00176538659193065</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00244610592349847</v>
+        <v>0.00259057581592371</v>
       </c>
       <c r="G25" t="n">
-        <v>0.00201305812458407</v>
+        <v>0.00214602080825568</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>49</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00135518828035597</v>
+        <v>0.00147588415035735</v>
       </c>
       <c r="D26" t="n">
-        <v>0.00289865087400505</v>
+        <v>0.003007582959041</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00160747774199768</v>
+        <v>0.00171440037753586</v>
       </c>
       <c r="F26" t="n">
-        <v>0.00239144714407882</v>
+        <v>0.00254611379082081</v>
       </c>
       <c r="G26" t="n">
-        <v>0.00195943563970996</v>
+        <v>0.00209868638214372</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>49</v>
       </c>
       <c r="C27" t="n">
-        <v>0.00132093763892686</v>
+        <v>0.00142376874019331</v>
       </c>
       <c r="D27" t="n">
-        <v>0.00283940850653372</v>
+        <v>0.00302247679404997</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00157667727561238</v>
+        <v>0.00168198646053287</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0023506016099476</v>
+        <v>0.00248983451160867</v>
       </c>
       <c r="G27" t="n">
-        <v>0.00191942641883671</v>
+        <v>0.00204807020844563</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>49</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00127074416668184</v>
+        <v>0.00138905410600463</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00277040441995356</v>
+        <v>0.00295625516543032</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00152271406265438</v>
+        <v>0.00165210265031321</v>
       </c>
       <c r="F28" t="n">
-        <v>0.00231586703115118</v>
+        <v>0.00246412590010439</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00187345456334271</v>
+        <v>0.00200517678590553</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.00133319956432631</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.00289375501968103</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.00159974937603873</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.00241814459880356</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.00195996575020381</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6574,621 +6736,639 @@
         <v>51</v>
       </c>
       <c r="C3" t="n">
-        <v>5573</v>
+        <v>7658</v>
       </c>
       <c r="D3" t="n">
-        <v>5578</v>
+        <v>7658</v>
       </c>
       <c r="E3" t="n">
-        <v>5574</v>
+        <v>7658</v>
       </c>
       <c r="F3" t="n">
-        <v>5577</v>
+        <v>7658</v>
       </c>
       <c r="G3" t="n">
-        <v>5575</v>
+        <v>7658</v>
       </c>
       <c r="H3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
       </c>
-      <c r="C4" t="n">
-        <v>3097.9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7692.7</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4216.75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>6506.25</v>
-      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
       <c r="G4" t="n">
-        <v>5428.5</v>
-      </c>
-      <c r="H4"/>
+        <v>10387.91978</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>2409.5</v>
+        <v>2994.1</v>
       </c>
       <c r="D5" t="n">
-        <v>8269.3</v>
+        <v>8033.4</v>
       </c>
       <c r="E5" t="n">
-        <v>3818.75</v>
+        <v>4204</v>
       </c>
       <c r="F5" t="n">
-        <v>6840.25</v>
+        <v>6812.5</v>
       </c>
       <c r="G5" t="n">
-        <v>5278.5</v>
+        <v>5471</v>
       </c>
       <c r="H5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>51</v>
       </c>
       <c r="C6" t="n">
-        <v>2095</v>
+        <v>2401.7</v>
       </c>
       <c r="D6" t="n">
-        <v>8696.6</v>
+        <v>8618.4</v>
       </c>
       <c r="E6" t="n">
-        <v>3683.75</v>
+        <v>3846.5</v>
       </c>
       <c r="F6" t="n">
-        <v>7046.25</v>
+        <v>7031.5</v>
       </c>
       <c r="G6" t="n">
-        <v>5307.5</v>
+        <v>5583.5</v>
       </c>
       <c r="H6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="n">
-        <v>1643.4</v>
+        <v>1871</v>
       </c>
       <c r="D7" t="n">
-        <v>9087.9</v>
+        <v>9126.1</v>
       </c>
       <c r="E7" t="n">
-        <v>3433.5</v>
+        <v>3473.25</v>
       </c>
       <c r="F7" t="n">
-        <v>7199.75</v>
+        <v>7230.25</v>
       </c>
       <c r="G7" t="n">
-        <v>5347</v>
+        <v>5181.5</v>
       </c>
       <c r="H7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
       </c>
       <c r="C8" t="n">
-        <v>1451.8</v>
+        <v>1822.5</v>
       </c>
       <c r="D8" t="n">
-        <v>9440.7</v>
+        <v>9595.5</v>
       </c>
       <c r="E8" t="n">
-        <v>3474.75</v>
+        <v>3376</v>
       </c>
       <c r="F8" t="n">
-        <v>7402.75</v>
+        <v>7253.75</v>
       </c>
       <c r="G8" t="n">
-        <v>5182.5</v>
+        <v>5176</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>51</v>
       </c>
       <c r="C9" t="n">
-        <v>1511.3</v>
+        <v>1428.6</v>
       </c>
       <c r="D9" t="n">
-        <v>9578.8</v>
+        <v>9692.6</v>
       </c>
       <c r="E9" t="n">
-        <v>3295.25</v>
+        <v>3367.25</v>
       </c>
       <c r="F9" t="n">
-        <v>7638.25</v>
+        <v>7344.25</v>
       </c>
       <c r="G9" t="n">
-        <v>5398.5</v>
+        <v>5211</v>
       </c>
       <c r="H9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>51</v>
       </c>
       <c r="C10" t="n">
-        <v>1313.2</v>
+        <v>1357.9</v>
       </c>
       <c r="D10" t="n">
-        <v>9679.6</v>
+        <v>9869.8</v>
       </c>
       <c r="E10" t="n">
-        <v>3341.75</v>
+        <v>3211</v>
       </c>
       <c r="F10" t="n">
-        <v>7510.75</v>
+        <v>7306</v>
       </c>
       <c r="G10" t="n">
-        <v>5438</v>
+        <v>5092.5</v>
       </c>
       <c r="H10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
       </c>
       <c r="C11" t="n">
-        <v>1203.4</v>
+        <v>1215.9</v>
       </c>
       <c r="D11" t="n">
-        <v>9777.9</v>
+        <v>9757</v>
       </c>
       <c r="E11" t="n">
-        <v>3110.5</v>
+        <v>3199.75</v>
       </c>
       <c r="F11" t="n">
-        <v>7738</v>
+        <v>7460.5</v>
       </c>
       <c r="G11" t="n">
-        <v>5432.5</v>
+        <v>5214.5</v>
       </c>
       <c r="H11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
       </c>
       <c r="C12" t="n">
-        <v>1289.6</v>
+        <v>1165.7</v>
       </c>
       <c r="D12" t="n">
-        <v>9945.3</v>
+        <v>10165.7</v>
       </c>
       <c r="E12" t="n">
-        <v>3204.5</v>
+        <v>3050.5</v>
       </c>
       <c r="F12" t="n">
-        <v>7686</v>
+        <v>7436.75</v>
       </c>
       <c r="G12" t="n">
-        <v>5239</v>
+        <v>5208</v>
       </c>
       <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
       </c>
       <c r="C13" t="n">
-        <v>995.6</v>
+        <v>942.9</v>
       </c>
       <c r="D13" t="n">
-        <v>10224.7</v>
+        <v>10073.1</v>
       </c>
       <c r="E13" t="n">
-        <v>3199.75</v>
+        <v>3080</v>
       </c>
       <c r="F13" t="n">
-        <v>7622.5</v>
+        <v>7463.75</v>
       </c>
       <c r="G13" t="n">
-        <v>5391.5</v>
+        <v>5085</v>
       </c>
       <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>51</v>
       </c>
       <c r="C14" t="n">
-        <v>996.6</v>
+        <v>658.2</v>
       </c>
       <c r="D14" t="n">
-        <v>10460.7</v>
+        <v>10369.8</v>
       </c>
       <c r="E14" t="n">
-        <v>3030</v>
+        <v>2991.75</v>
       </c>
       <c r="F14" t="n">
-        <v>7751.25</v>
+        <v>7673.25</v>
       </c>
       <c r="G14" t="n">
-        <v>5383.5</v>
+        <v>5202</v>
       </c>
       <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
         <v>51</v>
       </c>
       <c r="C15" t="n">
-        <v>927.9</v>
+        <v>829.9</v>
       </c>
       <c r="D15" t="n">
-        <v>10459.2</v>
+        <v>10630.6</v>
       </c>
       <c r="E15" t="n">
-        <v>3040.5</v>
+        <v>2833.75</v>
       </c>
       <c r="F15" t="n">
-        <v>7682.5</v>
+        <v>7581.25</v>
       </c>
       <c r="G15" t="n">
-        <v>5199.5</v>
+        <v>5217</v>
       </c>
       <c r="H15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>51</v>
       </c>
       <c r="C16" t="n">
-        <v>932.1</v>
+        <v>968.4</v>
       </c>
       <c r="D16" t="n">
-        <v>10429.2</v>
+        <v>10211.7</v>
       </c>
       <c r="E16" t="n">
-        <v>3128.75</v>
+        <v>2870.75</v>
       </c>
       <c r="F16" t="n">
-        <v>7718.5</v>
+        <v>7525.75</v>
       </c>
       <c r="G16" t="n">
-        <v>5255</v>
+        <v>5163.5</v>
       </c>
       <c r="H16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>51</v>
       </c>
       <c r="C17" t="n">
-        <v>1270.5</v>
+        <v>1059.4</v>
       </c>
       <c r="D17" t="n">
-        <v>10706.1</v>
+        <v>10300.6</v>
       </c>
       <c r="E17" t="n">
-        <v>3214</v>
+        <v>2991</v>
       </c>
       <c r="F17" t="n">
-        <v>7921</v>
+        <v>7636.75</v>
       </c>
       <c r="G17" t="n">
-        <v>5413.5</v>
+        <v>5089.5</v>
       </c>
       <c r="H17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>51</v>
       </c>
       <c r="C18" t="n">
-        <v>998.200000000001</v>
+        <v>729.6</v>
       </c>
       <c r="D18" t="n">
-        <v>10520.8</v>
+        <v>10509.4</v>
       </c>
       <c r="E18" t="n">
-        <v>3303.5</v>
+        <v>2801.75</v>
       </c>
       <c r="F18" t="n">
-        <v>7928.75</v>
+        <v>7641.25</v>
       </c>
       <c r="G18" t="n">
-        <v>5424.5</v>
+        <v>5020</v>
       </c>
       <c r="H18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
         <v>51</v>
       </c>
       <c r="C19" t="n">
-        <v>1013.4</v>
+        <v>612.2</v>
       </c>
       <c r="D19" t="n">
-        <v>10632.7</v>
+        <v>10145.1</v>
       </c>
       <c r="E19" t="n">
-        <v>3322.5</v>
+        <v>3000.25</v>
       </c>
       <c r="F19" t="n">
-        <v>7960.5</v>
+        <v>7536</v>
       </c>
       <c r="G19" t="n">
-        <v>5494</v>
+        <v>5169</v>
       </c>
       <c r="H19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>51</v>
       </c>
       <c r="C20" t="n">
-        <v>1095.2</v>
+        <v>801.8</v>
       </c>
       <c r="D20" t="n">
-        <v>10808.2</v>
+        <v>10380.1</v>
       </c>
       <c r="E20" t="n">
-        <v>3406.25</v>
+        <v>2885.25</v>
       </c>
       <c r="F20" t="n">
-        <v>8002.75</v>
+        <v>7653.5</v>
       </c>
       <c r="G20" t="n">
-        <v>5572.5</v>
+        <v>5243.5</v>
       </c>
       <c r="H20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>51</v>
       </c>
       <c r="C21" t="n">
-        <v>1174.4</v>
+        <v>760.7</v>
       </c>
       <c r="D21" t="n">
-        <v>11359.8</v>
+        <v>10193.4</v>
       </c>
       <c r="E21" t="n">
-        <v>3318.25</v>
+        <v>3072.5</v>
       </c>
       <c r="F21" t="n">
-        <v>7986.25</v>
+        <v>7705.25</v>
       </c>
       <c r="G21" t="n">
-        <v>5760.5</v>
+        <v>5312.5</v>
       </c>
       <c r="H21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
         <v>51</v>
       </c>
       <c r="C22" t="n">
-        <v>1229</v>
+        <v>1150.8</v>
       </c>
       <c r="D22" t="n">
-        <v>11033.9</v>
+        <v>10668.2</v>
       </c>
       <c r="E22" t="n">
-        <v>3401.25</v>
+        <v>3162.25</v>
       </c>
       <c r="F22" t="n">
-        <v>8090.5</v>
+        <v>7554.75</v>
       </c>
       <c r="G22" t="n">
-        <v>5611.5</v>
+        <v>5367.5</v>
       </c>
       <c r="H22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
         <v>51</v>
       </c>
       <c r="C23" t="n">
-        <v>912.9</v>
+        <v>1198.2</v>
       </c>
       <c r="D23" t="n">
-        <v>11348.4</v>
+        <v>11103.9</v>
       </c>
       <c r="E23" t="n">
-        <v>3221.25</v>
+        <v>3080.75</v>
       </c>
       <c r="F23" t="n">
-        <v>8126.25</v>
+        <v>7976</v>
       </c>
       <c r="G23" t="n">
-        <v>5754.5</v>
+        <v>5153.5</v>
       </c>
       <c r="H23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>51</v>
       </c>
       <c r="C24" t="n">
-        <v>903.8</v>
+        <v>907.2</v>
       </c>
       <c r="D24" t="n">
-        <v>11453.2</v>
+        <v>11354.4</v>
       </c>
       <c r="E24" t="n">
-        <v>3231.75</v>
+        <v>2921</v>
       </c>
       <c r="F24" t="n">
-        <v>8463.5</v>
+        <v>8185</v>
       </c>
       <c r="G24" t="n">
-        <v>5607</v>
+        <v>5288.5</v>
       </c>
       <c r="H24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>854.2</v>
+        <v>939.6</v>
       </c>
       <c r="D25" t="n">
-        <v>11812.9</v>
+        <v>11409.8</v>
       </c>
       <c r="E25" t="n">
-        <v>3198.25</v>
+        <v>3041.5</v>
       </c>
       <c r="F25" t="n">
-        <v>8318.75</v>
+        <v>8021</v>
       </c>
       <c r="G25" t="n">
-        <v>5576</v>
+        <v>5420</v>
       </c>
       <c r="H25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26" t="n">
-        <v>867.6</v>
+        <v>747.8</v>
       </c>
       <c r="D26" t="n">
-        <v>11384.7</v>
+        <v>10936.6</v>
       </c>
       <c r="E26" t="n">
-        <v>2965</v>
+        <v>2815.25</v>
       </c>
       <c r="F26" t="n">
-        <v>8472.5</v>
+        <v>7861</v>
       </c>
       <c r="G26" t="n">
-        <v>5684</v>
+        <v>5280.5</v>
       </c>
       <c r="H26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
         <v>51</v>
       </c>
       <c r="C27" t="n">
-        <v>1084.8</v>
+        <v>609.7</v>
       </c>
       <c r="D27" t="n">
-        <v>11739.4</v>
+        <v>11202.5</v>
       </c>
       <c r="E27" t="n">
-        <v>3097</v>
+        <v>2878.25</v>
       </c>
       <c r="F27" t="n">
-        <v>8512</v>
+        <v>8054.75</v>
       </c>
       <c r="G27" t="n">
-        <v>5816</v>
+        <v>5317.5</v>
       </c>
       <c r="H27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
         <v>51</v>
       </c>
       <c r="C28" t="n">
-        <v>1011</v>
+        <v>850.7</v>
       </c>
       <c r="D28" t="n">
-        <v>11608.8</v>
+        <v>11287.3</v>
       </c>
       <c r="E28" t="n">
-        <v>3329.75</v>
+        <v>2829.25</v>
       </c>
       <c r="F28" t="n">
-        <v>8560.75</v>
+        <v>8066.25</v>
       </c>
       <c r="G28" t="n">
-        <v>5719</v>
+        <v>5439.5</v>
       </c>
       <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="n">
+        <v>470.2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>11206.3</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3079.25</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8212.5</v>
+      </c>
+      <c r="G29" t="n">
+        <v>5512.5</v>
+      </c>
+      <c r="H29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
